--- a/Dat/RawData_prob1020.xlsx
+++ b/Dat/RawData_prob1020.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,62 +437,47 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Initial minimum</t>
+          <t>Minimum Fun</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Initial maximum</t>
+          <t>Maximum Fun</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Initial average</t>
+          <t>Average Fun</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Final minimum</t>
+          <t>Minimum income</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Final maximum</t>
+          <t>Maximum income</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Final average</t>
+          <t>Average income</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Minimum income</t>
+          <t>Minimum time</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Maximum income</t>
+          <t>Maximum time</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Average income</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Iteration time</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Suboptimal teaching time</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Average teaching time</t>
+          <t>Average time</t>
         </is>
       </c>
     </row>
@@ -500,41 +485,100 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.02052908606382173</v>
-      </c>
-      <c r="C2" t="n">
-        <v>26.21511835714035</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.12432862399358</v>
-      </c>
-      <c r="E2" t="n">
-        <v>35.48959948785345</v>
-      </c>
-      <c r="F2" t="n">
-        <v>37.99548278210621</v>
-      </c>
-      <c r="G2" t="n">
-        <v>35.79403251751271</v>
-      </c>
-      <c r="H2" t="n">
-        <v>162</v>
-      </c>
-      <c r="I2" t="n">
-        <v>230</v>
-      </c>
-      <c r="J2" t="n">
-        <v>173.02</v>
-      </c>
-      <c r="K2" t="n">
-        <v>21.65224528312683</v>
-      </c>
-      <c r="L2" t="n">
-        <v>6.053351165952743</v>
-      </c>
-      <c r="M2" t="n">
-        <v>4.833766631779967</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[0.023501500270270294, 0.03348986782035479, 0.03961097421190246, 0.04974411002364298, 0.05815251094443879, 0.05841224004899959, 0.07203131524108099, 0.07532, 11.915005281014361, 14.865649762885218, 14.984863370194217, 15.05152292616667, 15.088860982259924, 15.134782018580367, 15.276328303959684, 15.87476738488929, 15.969101842600814, 16.100974722013756, 16.188288498486383, 16.224734922823156, 16.254052796969912, 16.261316871108026, 16.43294981165797, 16.509413194086534, 16.512847817311062, 16.529083454450546, 16.56037161703187, 16.681236587058766, 16.900204648859084, 16.996184933860466, 16.996184933860466, 17.097620557425206, 17.116905761060696, 17.117507692903082, 17.173667030607202, 17.21616468692559, 17.241172277675624, 17.243663420384177, 17.298882244061367, 17.34043061433457, 17.446087697796333, 17.556721652356778, 17.556721652356778, 17.57241463234143, 17.616822221375216, 17.67216408280056, 17.808498179113805, 17.835257658541742, 17.85339445260119, 18.099286754429027, 18.099286754429027, 18.161763465165155, 18.298362800633964, 18.316269245724364, 18.334712765571403, 18.33631090702178, 18.38548802453832, 18.38548802453832, 18.40409071363668, 18.58397142490935, 18.61796928948849, 18.702037979203993, 18.81185114821136, 18.922049518217463, 18.961210486674812, 19.082502999385582, 19.140793255248365, 19.162620235557785, 19.182703365415847, 19.196369996111915, 19.196369996111915, 19.224148697789463, 19.306688149068357, 19.31500950794368, 19.379203058127715, 19.379203058127715, 19.398031429455507, 19.50353371345375, 19.62920750007821, 19.62920750007821, 19.645166337503166, 19.645166337503166, 19.6668843946864, 19.6668843946864, 19.694289222057606, 19.732232276730215, 19.760469758760234, 19.915007268394174, 20.00154838359369, 20.00552829166546, 20.00552829166546, 20.054645850634113, 20.067476318901676, 20.06878124887113, 20.075319479105417, 20.134071808671926, 20.15528375318946, 20.224317754667236, 20.237778897041274, 20.279658412235186, 20.280022686157125, 20.380154290529227, 20.380154290529227, 20.382488683550264, 20.440319700047578, 20.455379758379202, 20.455379758379202, 20.474972896977256, 20.474972896977256, 20.513102959623897, 20.53103012354006, 20.53103012354006, 20.573946921820017, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.188414466685398, 21.189029712622567, 21.194802412986157, 21.296707843546034, 21.296707843546034, 21.500741621809496, 21.536459435551368, 21.715060245493746, 21.728727327145105, 21.728727327145105, 21.728727327145105, 21.728727327145105, 21.87271701577289, 21.955459893121155, 21.955459893121155, 22.018788840183845, 22.097534251618875, 22.097534251618875, 22.10895662923808, 22.10895662923808, 22.10895662923808, 22.10895662923808, 22.10895662923808, 22.142422912683536, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.209830417734022, 22.235439958269037, 22.235439958269037, 22.235439958269037, 22.235439958269037, 22.258815398020204, 22.258815398020204, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.383180055046125, 22.414326205590566, 22.656962060483234, 22.656962060483234, 22.656962060483234, 22.656962060483234, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.767142162656413, 22.767142162656413, 22.767142162656413, 23.113148853926948, 23.113148853926948, 23.113148853926948, 23.113148853926948, 23.113148853926948, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.555267181665638, 23.826200652434, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.772688794518455, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.969454994576203, 24.969454994576203, 24.969454994576203, 25.23384060445947, 25.265267688765835, 25.38515357200358, 25.38515357200358, 25.38515357200358, 25.38515357200358, 25.632886105225307, 25.632886105225307, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.947533282305823, 25.947533282305823, 25.952517014678588, 25.952517014678588, 25.952517014678588, 25.952517014678588, 25.952517014678588, 26.615184806625027, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 0.024962200481788512, 0.0410952923124014, 0.05735369109552784, 0.059310585639836245, 0.062026769886436045, 0.07328278029361412, 0.07430772783039234, 0.07895030244355815, 0.10142854785070055, 12.550991916580308, 13.355681318482919, 13.788612201556363, 14.107327814585503, 14.409653905154036, 14.585851469965387, 14.904191063290153, 15.136939836369315, 15.392256430405057, 15.556200734689194, 15.702780377017083, 16.157256134613142, 16.162400877880025, 16.262660141810475, 16.27117154220034, 16.32958318998733, 16.342491356707225, 16.435274843056213, 16.439580292785234, 16.45545867720279, 16.46187208023315, 16.467945671102292, 16.46854923018223, 16.622619326854874, 16.646365086275463, 16.710023248724852, 16.82335667776486, 16.912630782798487, 16.955715399399672, 17.10586562577529, 17.19983193775848, 17.27837480881585, 17.302481986910607, 17.41421377627372, 17.43084504082062, 17.603725864553677, 17.66636227991215, 17.71638795611083, 17.717826933303286, 17.717826933303286, 17.738305294436522, 17.78587080830782, 17.78587080830782, 17.805675763217213, 18.001506908498378, 18.053755406144845, 18.053755406144845, 18.080784871548857, 18.215083481389343, 18.234699048487403, 18.234699048487403, 18.382181158374983, 18.75641399513511, 18.765787073171673, 18.765787073171673, 18.78025074859572, 18.79311296377226, 18.896617548091612, 18.896617548091612, 18.927952587446537, 19.01480351771421, 19.02355277146652, 19.02355277146652, 19.13357184592741, 19.145268982270046, 19.20716658487324, 19.313857273227455, 19.32180916157945, 19.327177945577862, 19.410572904920265, 19.44548927936243, 19.467586212141338, 19.499589646954103, 19.53673527282301, 19.672813757909143, 19.853760162251092, 19.940605493319413, 19.951339930148077, 19.964588173435352, 20.046870563125808, 20.046870563125808, 20.118308925687238, 20.153016978473282, 20.153016978473282, 20.26736984194413, 20.26736984194413, 20.28377017310277, 20.28377017310277, 20.28377017310277, 20.348812783016324, 20.348812783016324, 20.467991246556846, 20.517432412433656, 20.567374505742553, 20.71723145019455, 20.721885200839093, 20.740380779736984, 20.825132951459253, 20.851838059736846, 20.889354342856837, 20.909464247347866, 20.909464247347866, 20.909464247347866, 21.02329082522837, 21.035835053109732, 21.035835053109732, 21.037621191153598, 21.060405455512182, 21.060405455512182, 21.138384206816305, 21.167790272968873, 21.27313007413327, 21.32026299004388, 21.35475151671405, 21.35475151671405, 21.35475151671405, 21.35475151671405, 21.399456584696125, 21.42343104309407, 21.440157252934533, 21.440157252934533, 21.440157252934533, 21.440157252934533, 21.47858034503543, 21.47858034503543, 21.581315610066916, 21.588039856878606, 21.680057676829477, 21.680057676829477, 21.680057676829477, 21.680057676829477, 21.709600096986144, 21.709600096986144, 21.709600096986144, 21.709600096986144, 21.786691026200934, 21.786691026200934, 21.786691026200934, 21.838778097008262, 21.840721817472105, 21.840721817472105, 21.840721817472105, 21.840721817472105, 21.840721817472105, 21.840721817472105, 21.917947823269866, 21.917947823269866, 21.917947823269866, 21.917947823269866, 22.101910082233086, 22.101910082233086, 22.101910082233086, 22.101910082233086, 22.127916874588678, 22.127916874588678, 22.127916874588678, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.298295470708613, 22.298295470708613, 22.630023386447682, 22.69902685086493, 22.69902685086493, 22.88812324685349, 22.95700020762808, 23.028369470141573, 23.166723455456907, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.611698600676483, 23.74978385835753, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 24.40661626058381, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.326026876815206, 25.493252323386198, 26.424388487608404, 26.424388487608404, 27.557191924858166, 27.699117350447544, 27.699117350447544, 27.699117350447544, 27.699117350447544, 27.699117350447544, 27.699117350447544, 27.699117350447544, 29.06226772944584, 29.06226772944584, 29.06226772944584, 29.086640650988183, 29.086640650988183, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.967947991966685, 29.967947991966685, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.913982993410663, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 22.630023386447682, 22.630023386447682, 22.630023386447682, 22.630023386447682, 22.630023386447682, 22.630023386447682, 22.630023386447682, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 29.086640650988183, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 31.44224968562766, 31.44224968562766, 31.44224968562766, 31.44224968562766, 31.44224968562766, 31.44224968562766, 32.022246678744594, 32.022246678744594, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 33.096522254847116]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[13.77867094885682, 14.129335351898549, 14.453891891964304, 14.853130640151939, 15.535816425377458, 15.879476820712082, 16.675544604843495, 17.040830196679106, 17.388245550635034, 17.56153808942057, 17.61850547592509, 17.67551336169204, 17.752923893533058, 17.793484789109076, 17.79631571481666, 17.83274155988597, 17.928063004282684, 18.105654151321588, 18.13508294952814, 18.224169342133894, 18.28763527226654, 18.37403315476354, 18.415132202255865, 18.417680638363347, 18.44093565613763, 18.534446989125115, 18.584195564559952, 18.592911830896522, 18.60361039289386, 18.63964705950076, 18.698023506191433, 18.72479406282565, 18.790444737487732, 18.79157996287866, 18.858729266960143, 18.902839987510557, 18.969137296242845, 18.969187119097015, 19.009944576786157, 19.04561699189264, 19.153909414513656, 19.198325348451462, 19.23044332011548, 19.2668929482309, 19.305515329853144, 19.345763035427204, 19.382840972202516, 19.394380769111006, 19.481568593660274, 19.559075251151157, 19.589992842812638, 19.60429278181347, 19.66483810676262, 19.68335382470573, 19.70961258979281, 19.726572401789696, 19.78325981405062, 19.799477453482087, 19.83444912916476, 19.918601022689007, 19.970335224592173, 20.021389469203758, 20.039932859621246, 20.147918865981424, 20.213370853337178, 20.302464954740763, 20.329922489920637, 20.37100267307539, 20.387860834197546, 20.40431733272254, 20.429497527967886, 20.453173213856232, 20.521106000862723, 20.53634786285878, 20.593940650420013, 20.64093113580036, 20.696195532891476, 20.752127882022474, 20.787991364624318, 20.82970841953263, 20.891538772313393, 20.922049075964686, 20.93065213879673, 20.981207428623108, 20.993470194452524, 21.000933936389405, 21.07568732007857, 21.135578959811074, 21.141765169536537, 21.196835236772376, 21.24061764865917, 21.276975980072706, 21.29929669346138, 21.34184014480345, 21.363878150227382, 21.371178154646223, 21.410447403505163, 21.449520861026134, 21.489231114287474, 21.528368514066752, 21.533037405014525, 21.536936409230925, 21.552746953821696, 21.58732300059587, 21.623566204644973, 21.65693894322878, 21.690010480645956, 21.72479586319848, 21.759189382979038, 21.795096355888223, 21.795454899166543, 21.808247927097096, 21.8322018711692, 21.87770915673077, 21.87770915673077, 21.89818850404952, 21.913884071510594, 21.934363418829342, 21.95312892101275, 21.974891598571798, 21.996884399019173, 22.015649901202583, 22.036129248521334, 22.05431164422, 22.065105596510453, 22.094348789460398, 22.110593765174237, 22.148642523147704, 22.162520668431622, 22.1756844574407, 22.1910774605117, 22.200395891688903, 22.211227775994736, 22.22054620717194, 22.28977165941863, 22.29621029682328, 22.326499128184622, 22.331282908042304, 22.334800108958735, 22.33802573188676, 22.39347688752501, 22.39670418578898, 22.398418030924322, 22.400131876059667, 22.40184572119501, 22.403559566330355, 22.415812142984397, 22.44131719448806, 22.452525251675667, 22.47196180942178, 22.483169866609387, 22.50153986596782, 22.527044917471486, 22.53849478300451, 22.547741046494068, 22.567177604240182, 22.578385661427788, 22.625642185487198, 22.62715563861583, 22.64659219636194, 22.64659219636194, 22.669250119082573, 22.669250119082573, 22.6707635722112, 22.690200129957315, 22.690200129957315, 22.69171358308594, 22.711150140832057, 22.722358198019666, 22.74786324952333, 22.773368301026995, 22.773368301026995, 22.79280485877311, 22.804012915960715, 22.80482873740599, 22.82426529515211, 22.837228613813753, 22.84647487730331, 22.846987068114014, 22.850564793060443, 22.869185529361285, 22.869185529361285, 22.877615971405568, 22.8947026405237, 22.913909624633945, 22.931832729251436, 22.948689275481243, 22.965545821711054, 22.983468926328545, 22.983468926328545, 22.983468926328545, 22.983468926328545, 22.983468926328545, 22.993163530387527, 23.00285813444651, 23.01971468067632, 23.0294092847353, 23.047332389352793, 23.05476982315958, 23.070866591118417, 23.10887685168827, 23.10887685168827, 23.119067145944822, 23.122990733340917, 23.132272990503854, 23.140501491062363, 23.148729991620872, 23.156958492179385, 23.156958492179385, 23.17125548649544, 23.207303953367244, 23.215532453925757, 23.223760954484263, 23.231989455042775, 23.240217955601285, 23.248446456159794, 23.256674956718303, 23.25691676506372, 23.279442259938286, 23.287670760496795, 23.2958992610553, 23.303885953268395, 23.348733060612304, 23.384539719138694, 23.413426243839673, 23.41449280222735, 23.415559360615035, 23.444445885316014, 23.477045373425188, 23.483113867182738, 23.489182360940287, 23.517002327253582, 23.517002327253582, 23.54482229356688, 23.55801677114934, 23.55801677114934, 23.585836737462635, 23.585836737462635, 23.613656703775938, 23.641476670089233, 23.673009599810726, 23.673009599810726, 23.70082956612402, 23.706898059881567, 23.73471802619487, 23.790357958821463, 23.790357958821463, 23.796426452579013, 23.824246418892308, 23.852066385205607, 23.852066385205607, 23.852066385205607, 23.879886351518902, 23.879886351518902, 23.911419281240395, 23.939239247553697, 23.97077217727519, 23.998592143588485, 23.998592143588485, 24.00466063734603, 24.039610761748026, 24.075166707440303, 24.106699637161796, 24.106699637161796, 24.106699637161796, 24.13823256688329, 24.169765496604782, 24.19758546291808, 24.204307514480753, 24.204307514480753, 24.204307514480753, 24.204307514480753, 24.204307514480753, 24.231073724189624, 24.231073724189624, 24.2578399338985, 24.291736301696066, 24.31720073766001, 24.342665173623956, 24.371546804268394, 24.393298276824147, 24.418762712788094, 24.44051418534384, 24.46226565789959, 24.484017130455342, 24.484017130455342, 24.505768603011088, 24.52752007556684, 24.52752007556684, 24.549271548122586, 24.549271548122586, 24.59277449323409, 24.612818651380294, 24.627444140111134, 24.627444140111134, 24.631157103519328, 24.63828726160802, 24.63828726160802, 24.642000225016215, 24.642000225016215, 24.64571318842441, 24.652843346513105, 24.659973504601798, 24.667103662690494, 24.67423382077919, 24.677946784187384, 24.681659747595578, 24.68537271100377, 24.689085674411967, 24.69279863782016, 24.69651160122835, 24.700224564636546, 24.707960544015528, 24.711673507423725, 24.715386470831916, 24.723122450210898, 24.726835413619092, 24.73054837702729, 24.73426134043548, 24.73797430384368, 24.741687267251873, 24.74540023066007, 24.749113194068265, 24.752826157476463, 24.756539120884653, 24.764275100263635, 24.76798806367183, 24.76798806367183, 24.771701027080027, 24.798944250185876, 24.80265721359407, 24.809787371682763, 24.809787371682763, 24.809787371682763, 24.809787371682763, 24.813810387653547, 24.813810387653547, 24.81783340362433, 24.81783340362433, 24.81783340362433, 24.821856419595115, 24.8258794355659, 24.845696731855366, 24.845696731855366, 24.849113926535864, 24.85313694250665, 24.85313694250665, 24.872968389840352, 24.872968389840352, 24.89278568612982, 24.896808702100603, 24.900831718071387, 24.904854734042168, 24.90887775001296, 24.912294944693453, 24.916317960664237, 24.930155323536496, 24.949986770870197, 24.95742698152148, 24.961449997492263, 24.965473013463047, 24.96949602943383, 25.030817556411606, 25.03484057238239, 25.03484057238239, 25.0516896840179, 25.075529996278156, 25.079553012248944, 25.08357602821973, 25.08759904419052, 25.10743049152422, 25.11195712622803, 25.115388831496162, 25.115994652786444, 25.132408905439643, 25.13301472672993, 25.13362054802021, 25.13362054802021, 25.134226369310497, 25.134832190600783, 25.199593516092115, 25.2001993373824, 25.22097001780776, 25.258424890802917, 25.310257826034373, 25.347106877739243, 25.347106877739243, 25.36291530910216, 25.37870958942084, 25.379213208153864, 25.395007488472547, 25.431856540177424, 25.447650820496104, 25.476633269912753, 25.492441701275666, 25.529290752980543, 25.545085033299223, 25.581934085004097, 25.597742516367006, 25.63577925170966, 25.708146524901995, 25.72831138403707, 25.744119815399987, 25.80671947692334, 25.870269159834102, 25.90711821153898, 25.915935801820552, 25.931730082139232, 25.995279765049997, 26.032128816754867, 26.04590105770087, 26.046404676433895, 26.062213107796808, 26.078007388115484, 26.09329804970114, 26.108602862331026, 26.123907674960915, 26.133910624348903, 26.14328503205077, 26.15027587313211, 26.157266714213453, 26.185298175636753, 26.213329637060053, 26.23640644781892, 26.28523386839626, 26.285248019440495, 26.31057369499563, 26.31494427381202, 26.314958424856254, 26.31498672694472, 26.315000877988954, 26.336055649375144, 26.357110420761337, 26.378165192147527, 26.42592059473961, 26.446975366125802, 26.464599300781124, 26.485639921123084, 26.489996348895243, 26.58895241650086, 26.60999303684282, 26.60999303684282, 26.631033657184776, 26.631033657184776, 26.63529041030948, 26.65633103065144, 26.6773716509934, 26.698412271335357, 26.719452891677314, 26.775490838511864, 26.796531458853824, 26.84332268901426, 26.891063940562113, 26.92606126705471, 26.92606126705471, 26.94710188739667, 26.989636364432403, 27.023104424219454, 27.065539226607733, 27.107974028996015, 27.12465822156581, 27.12465822156581, 27.14134241413561, 27.144773250866482, 27.144773250866482, 27.158729957017115, 27.158729957017115, 27.185430588223007, 27.185430588223007, 27.185430588223007, 27.185430588223007, 27.212131219428898, 27.212131219428898, 27.212131219428898, 27.21254965947247, 27.25178125551623, 27.25178125551623, 27.26573796166687, 27.26573796166687, 27.26573796166687, 27.26573796166687, 27.26573796166687, 27.291488571485345, 27.291488571485345, 27.291488571485345, 27.291488571485345, 27.291488571485345, 27.318189202691237, 27.318189202691237, 27.318189202691237, 27.318189202691237, 27.391782183852957, 27.405738890003594, 27.431489499822074, 27.445446205972708, 27.4721468371786, 27.498847468384486, 27.524598078202967, 27.524598078202967, 27.538554784353604, 27.548786721136437, 13.626825238842638, 13.95291765863275, 14.587639712412955, 14.911916069435051, 15.602987909439417, 15.93448238884029, 15.93504530419143, 16.392699153787383, 16.79418048730798, 17.449809238401787, 17.509913414763968, 17.608219522575542, 17.69352238666731, 17.714114627102987, 17.75277137613405, 17.89415514587193, 17.925430238028174, 18.09505227588197, 18.110455164831468, 18.155048566303837, 18.252174703761412, 18.280154390886892, 18.39526532979469, 18.44587438623392, 18.49631321466536, 18.552626930511018, 18.603709454338706, 18.61147109103288, 18.63700724429939, 18.690803450400736, 18.729209631963574, 18.754207257207593, 18.843025557550906, 18.914056005203744, 18.942744400909213, 19.07903936791791, 19.145632573932076, 19.201553834051957, 19.248875709295554, 19.266788534950017, 19.287485877164592, 19.348894636648605, 19.408520400372446, 19.474580753850862, 19.595390348709167, 19.59903324758425, 19.610399982955755, 19.63167723880545, 19.70441573047367, 19.766561850836787, 19.78711148641149, 19.83233148150785, 19.864825523440103, 19.898703801114838, 19.913801942847574, 19.913801942847574, 19.967164538741457, 20.019532498482242, 20.097269030499117, 20.155930854988746, 20.190048983885386, 20.258139181241905, 20.317202903278925, 20.34282457307801, 20.372856228453458, 20.377722268910876, 20.451227524770307, 20.451227524770307, 20.552925736130902, 20.59335596100626, 20.623408538900648, 20.629481042382878, 20.684743807477563, 20.699147573804034, 20.842538983736368, 20.86129318926805, 20.86575074925996, 20.9589451283508, 20.993609678549483, 21.038999373987668, 21.129720150722843, 21.16917157153871, 21.205585038400503, 21.213877131547, 21.285829101098738, 21.320380210055056, 21.32724350365072, 21.355311735382042, 21.383115002247614, 21.44274498038793, 21.478622005474854, 21.505058972019796, 21.507674035912387, 21.525821805453166, 21.525821805453166, 21.547395226526014, 21.57348062020153, 21.585592303596613, 21.607906031828477, 21.61911906111511, 21.650501761920182, 21.67533393892877, 21.679792906274834, 21.712846893457744, 21.715539025648592, 21.721818022694002, 21.734105437433545, 21.75120393194095, 21.770981607095656, 21.78679567377511, 21.813692105759852, 21.813692105759852, 21.864304955798005, 21.8858773409381, 21.9035195963413, 21.91961733162855, 21.93567934415492, 21.943274380103368, 21.967151987924822, 21.989470020720194, 22.011199932192522, 22.039717867727155, 22.149071561706435, 22.155577684908746, 22.173568371506164, 22.175276486230572, 22.19504146667011, 22.231017670159055, 22.24763476622887, 22.263917338101884, 22.314744755365613, 22.324300566772322, 22.37512798403605, 22.37512798403605, 22.446330526231154, 22.494334776352243, 22.531376114199787, 22.54033329815497, 22.575534279603495, 22.610735261052017, 22.65676466983785, 22.65938710424757, 22.693997237292965, 22.728607370338356, 22.76321750338375, 22.796285817844847, 22.796285817844847, 22.84018255964325, 22.84849271463478, 22.88048041327046, 22.926932934670422, 22.9697490606434, 22.9697490606434, 23.00173675927908, 23.0069605245743, 23.037403703094018, 23.05302528364592, 23.083468462165637, 23.124740068022664, 23.127787583309704, 23.15455151665016, 23.218573623064593, 23.245337556405048, 23.282409781235696, 23.308653578729036, 23.33489737622238, 23.33489737622238, 23.33489737622238, 23.358613794275794, 23.39315863966652, 23.416875057719935, 23.440591475773353, 23.475136321164076, 23.49885273921749, 23.507747559303088, 23.531463977356506, 23.55518039540992, 23.578896813463338, 23.601733039034283, 23.635397691942536, 23.646131693322722, 23.79953399463031, 23.944912417452347, 24.081770931905563, 24.102261490075424, 24.110496235657706, 24.15322207460767, 24.279040919012836, 24.279040919012836, 24.279040919012836, 24.279040919012836, 24.289869346350148, 24.293301183378563, 24.352986818145613, 24.352986818145613, 24.363815245482918, 24.37464367282023, 24.411901845894214, 24.4491600189682, 24.562090697002844, 24.562090697002844, 24.572919124340157, 24.698737968745323, 24.698737968745323, 24.824556813150494, 24.835385240487803, 24.961204084892973, 24.998462257966956, 25.12428110237213, 25.250099946777297, 25.375918791182468, 25.413176964256454, 25.498357176280287, 25.624176020685454, 25.63500444802276, 25.645832875360064, 25.656661302697373, 25.667489730034678, 25.67488632034357, 25.679521205498844, 25.794511622566706, 25.909502039634567, 25.935931785371245, 26.050922202439107, 26.165912619506962, 26.280903036574824, 26.395893453642685, 26.422323199379363, 26.422323199379363, 26.422323199379363, 26.537313616447218, 26.65230403351508, 26.767294450582934, 26.793724196319612, 26.868075981006136, 26.868075981006136, 26.939589257180877, 26.96601900291755, 26.99244874865423, 27.134329140935964, 27.249319558003823, 27.249319558003823, 27.32367134269035, 27.350101088427028, 27.376530834163706, 27.491521251231564, 27.606511668299426, 27.680863452985953, 27.795853870053815, 27.82608835419912, 27.852518099935796, 27.95900675411441, 28.006928793064255, 28.09548946439544, 28.184050135726622, 28.23197217467647, 28.23197217467647, 28.320532846007655, 28.484278563868653, 28.572839235199837, 28.765050053097717, 28.8536107244289, 28.942171395760084, 28.990093434709934, 29.06527848123975, 29.109901782200613, 29.19465771512317, 29.260790924761285, 29.385490750528035, 29.428967891421152, 29.469606523802486, 29.510245156183817, 29.510245156183817, 29.55088378856515, 29.591522420946486, 29.632161053327817, 29.70006269328912, 29.71343831809049, 29.726813942891855, 29.740189567693218, 29.75307773406374, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.796144850905286, 29.796144850905286, 29.8112343261408, 29.8112343261408, 29.8112343261408, 29.8112343261408, 29.8112343261408, 29.82632380137631, 29.82632380137631, 29.82632380137631, 29.84141327661182, 29.84141327661182, 29.84141327661182, 29.84141327661182, 29.856502751847334, 29.871592227082846, 29.88668170231836, 29.901771177553872, 29.901771177553872, 29.91686065278939, 29.9319501280249, 29.947039603260414, 29.962129078495927, 29.97721855373144, 29.97721855373144, 29.97721855373144, 29.992308028966953, 29.992308028966953, 30.00739750420247, 30.022486979437975, 30.022486979437975, 30.03757645467349, 30.052665929909004, 30.067755405144517, 30.08284488038003, 30.097934355615543, 30.097934355615543, 30.113023830851056, 30.143202781322085, 30.158292256557598, 30.158292256557598, 30.158292256557598, 30.17338173179311, 30.203560682264136, 30.218650157499653, 30.233739632735166, 30.24882910797068, 30.26391858320619, 30.279008058441704, 30.279008058441704, 30.294097533677217, 30.30918700891273, 30.324276484148246, 30.33936595938376, 30.33936595938376, 30.354455434619272, 30.369544909854785, 30.384634385090298, 30.39972386032581, 30.414813335561327, 30.42990281079684, 30.444992286032353, 30.460081761267865, 30.464819741716916, 30.47517123650338, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.514649959325894, 30.514649959325894, 30.514649959325894, 30.52464264827519, 30.52464264827519, 30.534635337224486, 30.57536250512288, 30.585355194072175, 30.624974356261795, 30.624974356261795, 30.655708835210895, 30.665701524160184, 30.684836063246944, 30.684836063246944, 30.724455225436564, 30.74358976452332, 30.74358976452332, 30.753582453472614, 30.753582453472614, 30.753582453472614, 30.76357514242191, 30.76357514242191, 30.76357514242191, 30.782709681508667, 30.782709681508667, 30.792702370457963, 30.832321532647583, 30.871940694837207, 30.911559857026827, 30.930694396113587, 30.930694396113587, 30.970313558303204, 31.0110407262016, 31.0110407262016, 31.030175265288353, 31.030175265288353, 31.030175265288353, 31.04016795423765, 31.050160643186945, 31.06015333213624, 31.079287871223002, 31.0892805601723, 31.128899722361915, 31.148034261448675, 31.207638801536888, 31.259858792008032]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[25, 35, 41, 50, 62, 59, 74, 77, 83, 262, 294, 216, 272, 275, 104, 109, 312, 150, 327, 121, 91, 75, 294, 283, 236, 119, 335, 256, 284, 114, 114, 200, 273, 128, 263, 180, 279, 292, 280, 342, 231, 84, 84, 166, 188, 328, 121, 158, 231, 166, 166, 136, 241, 308, 92, 203, 265, 265, 317, 246, 111, 197, 124, 145, 181, 130, 138, 128, 184, 305, 305, 327, 219, 100, 230, 230, 136, 156, 221, 221, 154, 154, 203, 203, 183, 242, 295, 134, 180, 155, 155, 177, 222, 224, 300, 132, 316, 313, 336, 253, 132, 211, 211, 116, 307, 257, 257, 197, 197, 177, 255, 255, 219, 202, 202, 202, 202, 202, 202, 202, 202, 202, 182, 191, 131, 137, 137, 108, 248, 309, 206, 206, 206, 206, 259, 295, 295, 307, 233, 233, 202, 202, 202, 202, 202, 158, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 194, 234, 234, 234, 234, 127, 127, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 228, 279, 188, 188, 188, 188, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 169, 169, 169, 113, 113, 113, 113, 113, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 117, 117, 117, 117, 117, 117, 117, 117, 117, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 212, 229, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 192, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 241, 241, 241, 214, 152, 182, 182, 182, 182, 149, 149, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 203, 203, 114, 114, 114, 114, 114, 151, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 26, 42, 58, 60, 66, 75, 76, 80, 111, 76, 195, 94, 107, 158, 150, 177, 246, 146, 134, 164, 223, 129, 215, 208, 222, 211, 269, 145, 213, 231, 153, 211, 259, 145, 273, 185, 190, 218, 220, 148, 279, 195, 112, 162, 209, 222, 199, 194, 194, 170, 173, 173, 163, 188, 228, 228, 197, 279, 200, 200, 257, 276, 208, 208, 134, 236, 278, 278, 77, 219, 187, 187, 154, 229, 146, 94, 263, 277, 185, 163, 116, 169, 300, 107, 181, 167, 266, 174, 254, 254, 189, 135, 135, 208, 208, 212, 212, 212, 166, 166, 158, 214, 179, 230, 311, 103, 179, 264, 278, 210, 210, 210, 123, 101, 101, 139, 218, 218, 104, 150, 182, 129, 151, 151, 151, 151, 335, 306, 321, 321, 321, 321, 181, 181, 123, 140, 267, 267, 267, 267, 189, 189, 189, 189, 197, 197, 197, 162, 306, 306, 306, 306, 306, 306, 236, 236, 236, 236, 91, 91, 91, 91, 300, 300, 300, 208, 208, 208, 208, 208, 208, 208, 208, 208, 208, 208, 208, 249, 249, 105, 195, 195, 277, 319, 141, 146, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 350, 234, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 171, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 185, 192, 129, 129, 188, 202, 202, 202, 202, 202, 202, 202, 148, 148, 148, 133, 133, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 139, 139, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 137, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 105, 105, 105, 105, 105, 105, 105, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 133, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 162, 162, 162, 162, 162, 162, 160, 160, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 188]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[186.62, 187.8, 188.6, 191.38, 196.1, 200.44, 206.1, 208.68, 211.76, 208.96, 207.52, 204.8, 203.38, 203.4, 199.98, 201.9, 200.04, 198.38, 198.7, 197.46, 197.76, 200.32, 204.98, 205.8, 206.7, 205.62, 204.84, 200.42, 198.9, 197.16, 197.56, 197.12, 197.34, 197.14, 198.52, 197.86, 199.36, 199.62, 197.14, 194.14, 189.82, 189.26, 190.14, 193.06, 192.86, 193.52, 189.24, 192.12, 194.02, 193.52, 193.28, 193.58, 194.68, 196.4, 194.66, 196.5, 196.48, 197.28, 194.62, 191.36, 190.48, 192.3, 192.78, 193.54, 195.7, 202.26, 204.8, 204.66, 205.2, 204.62, 203.66, 201.78, 200.62, 200.72, 203.78, 203.3, 201.86, 204.2, 203.82, 205.58, 208.12, 209.08, 212.0, 213.0, 211.58, 212.36, 210.52, 207.14, 210.72, 209.64, 211.6, 210.56, 211.06, 211.68, 211.24, 211.38, 213.4, 211.12, 208.74, 207.08, 205.56, 206.86, 206.68, 206.5, 209.24, 207.14, 206.04, 205.96, 207.08, 206.7, 208.26, 207.2, 206.22, 207.4, 207.4, 208.42, 210.28, 211.3, 211.3, 209.8, 209.32, 209.32, 210.34, 211.36, 211.66, 212.8, 214.1, 216.82, 219.72, 219.82, 220.72, 221.66, 221.1, 222.04, 221.9, 221.78, 218.88, 218.04, 216.96, 214.84, 212.02, 211.54, 212.56, 213.58, 214.6, 215.62, 214.98, 212.92, 210.38, 209.02, 206.48, 203.68, 201.62, 199.94, 198.64, 197.28, 194.74, 192.08, 190.58, 189.22, 189.22, 185.0, 185.0, 183.5, 182.14, 182.14, 180.64, 179.28, 176.74, 174.68, 172.62, 172.62, 171.26, 168.72, 168.34, 166.98, 163.8, 162.5, 163.3, 164.2, 163.22, 163.22, 162.3, 162.02, 161.82, 161.96, 160.66, 159.36, 159.5, 159.5, 159.5, 159.5, 159.5, 158.46, 157.42, 156.12, 155.08, 155.22, 153.18, 149.94, 148.58, 148.58, 148.52, 146.04, 145.86, 147.04, 148.22, 149.4, 149.4, 149.88, 149.76, 150.94, 152.12, 153.3, 154.48, 155.66, 156.84, 157.7, 159.36, 160.54, 161.72, 162.04, 160.02, 159.04, 159.18, 160.62, 162.06, 162.2, 162.42, 161.72, 161.02, 159.72, 159.72, 158.42, 159.3, 159.3, 158.0, 158.0, 156.7, 155.4, 154.18, 154.18, 152.88, 152.18, 150.88, 148.28, 148.28, 147.58, 146.28, 144.98, 144.98, 144.98, 143.68, 143.68, 142.46, 141.16, 139.94, 138.64, 138.64, 137.94, 136.98, 136.1, 134.88, 134.88, 134.88, 133.66, 132.44, 131.14, 133.04, 133.04, 133.04, 133.04, 133.04, 133.1, 133.1, 133.16, 133.56, 133.04, 132.52, 132.26, 131.66, 131.14, 130.54, 129.94, 129.34, 129.34, 128.74, 128.14, 128.14, 127.54, 127.54, 126.34, 124.5, 122.32, 122.32, 122.4, 122.74, 122.74, 122.82, 122.82, 122.9, 123.24, 123.58, 123.92, 124.26, 124.34, 124.42, 124.5, 124.58, 124.66, 124.74, 124.82, 125.24, 125.32, 125.4, 125.82, 125.9, 125.98, 126.06, 126.14, 126.22, 126.3, 126.38, 126.46, 126.54, 126.96, 127.04, 127.04, 127.12, 128.72, 128.8, 129.14, 129.14, 129.14, 129.14, 129.48, 129.48, 129.82, 129.82, 129.82, 130.16, 130.5, 131.94, 131.94, 132.2, 132.54, 132.54, 134.06, 134.06, 135.5, 135.84, 136.18, 136.52, 136.86, 137.12, 137.46, 139.6, 141.12, 141.72, 142.06, 142.4, 142.74, 145.22, 145.56, 145.56, 148.34, 150.12, 150.46, 150.8, 151.14, 152.66, 155.0, 153.98, 154.06, 155.32, 155.4, 155.48, 155.48, 155.56, 155.64, 155.68, 155.76, 155.3, 156.16, 157.26, 158.04, 158.04, 159.22, 160.32, 162.32, 163.42, 164.2, 165.3, 165.58, 166.76, 167.54, 168.64, 169.42, 170.6, 173.18, 173.88, 173.34, 174.52, 174.76, 174.64, 175.42, 176.24, 177.34, 177.22, 178.0, 178.16, 180.16, 181.34, 182.44, 181.54, 180.72, 179.9, 179.54, 180.42, 180.78, 181.14, 181.1, 181.06, 181.68, 181.76, 181.84, 181.66, 180.02, 180.1, 180.26, 180.34, 180.02, 179.7, 179.38, 178.16, 177.84, 176.94, 176.54, 174.82, 169.42, 169.02, 169.02, 168.62, 168.62, 168.68, 168.28, 167.88, 167.48, 167.08, 165.24, 164.84, 163.9, 162.6, 161.16, 161.16, 160.76, 159.76, 160.62, 161.4, 162.18, 163.5, 163.5, 164.82, 165.4, 165.4, 164.36, 164.36, 163.46, 163.46, 163.46, 163.46, 162.56, 162.56, 162.56, 161.18, 161.56, 161.56, 160.52, 160.52, 160.52, 160.52, 160.52, 159.98, 159.98, 159.98, 159.98, 159.98, 159.08, 159.08, 159.08, 159.08, 159.06, 158.02, 157.48, 156.44, 155.54, 154.64, 154.1, 154.1, 153.06, 153.02, 146.38, 150.3, 153.88, 156.88, 163.0, 165.4, 166.12, 170.98, 172.08, 176.22, 177.38, 178.5, 181.18, 183.96, 185.02, 187.76, 187.28, 186.88, 186.54, 187.32, 188.92, 186.96, 189.1, 189.52, 190.08, 190.22, 191.56, 189.88, 190.96, 191.28, 191.8, 192.62, 192.6, 190.8, 191.84, 191.84, 190.84, 192.46, 193.36, 192.72, 193.76, 191.5, 191.84, 194.2, 193.62, 192.9, 192.46, 191.16, 190.3, 190.0, 190.76, 192.38, 192.62, 192.74, 194.5, 194.5, 196.16, 196.56, 192.8, 191.8, 191.14, 189.94, 188.2, 189.12, 189.12, 190.18, 189.82, 189.82, 186.96, 185.04, 184.94, 186.74, 186.94, 187.48, 184.64, 183.36, 187.48, 184.92, 183.74, 185.38, 184.82, 188.92, 188.12, 187.44, 188.08, 186.92, 187.82, 185.52, 185.06, 182.8, 183.84, 186.48, 188.02, 189.68, 189.68, 190.5, 189.06, 190.38, 192.84, 193.72, 195.12, 195.74, 193.52, 195.48, 196.16, 191.96, 192.92, 194.68, 195.52, 195.3, 195.26, 195.26, 196.1, 195.46, 198.16, 202.26, 205.6, 207.66, 207.46, 209.54, 210.7, 210.96, 209.76, 212.08, 213.22, 216.62, 222.26, 218.18, 216.22, 213.96, 210.24, 208.54, 204.82, 204.82, 206.86, 207.1, 209.34, 210.0, 209.7, 209.4, 206.76, 209.1, 210.36, 211.62, 212.88, 213.98, 213.98, 212.74, 213.66, 212.58, 209.18, 205.76, 205.76, 204.68, 200.38, 200.7, 199.88, 200.2, 198.18, 200.52, 203.74, 205.12, 208.34, 205.04, 204.08, 203.12, 203.12, 203.12, 204.0, 202.54, 203.42, 204.3, 202.84, 203.72, 203.46, 204.34, 205.22, 206.1, 206.16, 203.88, 204.7, 202.26, 201.14, 199.14, 195.46, 197.68, 197.96, 196.46, 196.46, 196.46, 196.46, 194.12, 196.08, 193.62, 193.62, 191.28, 188.94, 187.1, 185.26, 182.88, 182.88, 180.54, 179.04, 179.04, 177.54, 175.2, 173.7, 171.86, 170.36, 168.86, 167.36, 165.52, 164.52, 163.02, 160.68, 158.34, 156.0, 153.66, 149.36, 147.38, 148.22, 149.06, 149.56, 150.4, 151.24, 152.08, 152.92, 153.42, 153.42, 153.42, 154.26, 155.1, 155.94, 156.44, 157.78, 157.78, 158.84, 159.34, 159.84, 161.68, 162.52, 162.52, 163.86, 164.36, 164.86, 165.7, 166.54, 167.88, 168.72, 169.86, 170.36, 170.48, 171.32, 171.66, 172.0, 172.84, 172.84, 173.18, 173.28, 173.62, 173.48, 173.82, 174.16, 175.0, 174.76, 174.82, 174.52, 175.48, 175.4, 175.18, 174.68, 174.18, 174.18, 173.68, 173.18, 172.68, 171.1, 171.68, 172.26, 172.84, 173.72, 174.6, 174.6, 174.6, 174.6, 174.6, 174.6, 174.6, 174.6, 174.6, 174.6, 172.96, 172.96, 172.14, 172.14, 172.14, 172.14, 172.14, 171.32, 171.32, 171.32, 170.5, 170.5, 170.5, 170.5, 169.68, 168.86, 168.04, 167.22, 167.22, 166.4, 165.58, 164.76, 163.94, 163.12, 163.12, 163.12, 162.3, 162.3, 161.48, 160.66, 160.66, 159.84, 159.02, 158.2, 157.38, 156.56, 156.56, 155.74, 154.1, 153.28, 153.28, 153.28, 152.46, 150.82, 150.0, 149.18, 148.36, 147.54, 146.72, 146.72, 145.9, 145.08, 144.26, 143.44, 143.44, 142.62, 141.8, 140.98, 140.16, 139.34, 138.52, 137.7, 136.88, 136.12, 136.06, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 138.22, 138.22, 138.22, 139.92, 139.92, 141.62, 143.8, 145.5, 146.02, 146.02, 146.5, 148.2, 148.72, 148.72, 149.24, 149.76, 149.76, 151.46, 151.46, 151.46, 153.16, 153.16, 153.16, 153.68, 153.68, 155.38, 155.9, 156.42, 156.94, 157.46, 157.46, 157.98, 160.16, 160.16, 160.68, 160.68, 160.68, 162.38, 164.08, 165.78, 166.3, 168.0, 168.52, 169.04, 172.96, 174.0]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[1063.7618753056938, 1045.0922108067375, 1035.0666908788162, 1005.1441261334337, 1066.16204516495, 1010.062273771856, 1027.3309567141741, 1022.3048327137546, 6.966006144559087, 17.624523931280176, 19.619798508459105, 14.350707304474138, 18.02654291266864, 18.17006678143058, 6.807918626169012, 6.866242342785683, 19.537729991030353, 9.316206167003996, 20.199788262395668, 7.457748960187364, 5.598603692056683, 4.612172593060699, 17.89088406948268, 17.141735849301238, 14.29190183370987, 7.199431252672307, 20.229014646957683, 15.346584089491527, 16.804530235033134, 6.707387595723598, 6.707387595723598, 11.6975341292823, 15.949144302765783, 7.477724111265847, 15.314143422675944, 10.455290320073248, 16.18219431408718, 16.93375664331393, 16.186016879565894, 19.722693605848733, 13.240790944159835, 4.784492325121758, 4.784492325121758, 9.446624352607902, 10.671618163455827, 18.560262255556246, 6.794508935172953, 8.858857159505623, 12.938715974336406, 9.171632134033048, 9.171632134033048, 7.488259620870648, 13.170577205500065, 16.815651477273278, 5.017804269765052, 11.070929208680813, 14.41354179156495, 14.41354179156495, 17.22443150995316, 13.237213638322194, 5.961982119213691, 10.533611375351555, 6.591589473202374, 7.663017680003388, 9.545804057562655, 6.812523493599646, 7.209732541370023, 6.6796710693293235, 9.591974420650757, 15.888420574398989, 15.888420574398989, 17.009855944237515, 11.343219422672854, 5.177320775269254, 11.868393107297418, 11.868393107297418, 7.011020705610716, 7.998550534070116, 11.258732681852768, 11.258732681852768, 7.839078445775729, 7.839078445775729, 10.321919625197298, 10.321919625197298, 9.292033743215265, 12.264197816350725, 14.928794892096139, 6.728594079534321, 8.999303281322229, 7.747858378954923, 7.747858378954923, 8.825885100055427, 11.06267656540832, 11.161614510726706, 14.943722330907004, 6.556050919772046, 15.678270962074388, 15.476418230610914, 16.60261245610913, 12.475555300643489, 6.508868458520091, 10.353209155931312, 10.353209155931312, 5.6911597892174015, 15.019334555676515, 12.563931984431836, 12.563931984431836, 9.621502357596935, 9.621502357596935, 8.628631189946763, 12.420224336801649, 12.420224336801649, 10.644530231957397, 9.541497273412006, 9.541497273412006, 9.541497273412006, 9.541497273412006, 9.541497273412006, 9.541497273412006, 9.541497273412006, 9.541497273412006, 9.541497273412006, 8.589599768598028, 9.014098455212366, 6.180760615146649, 6.432919163208497, 6.432919163208497, 5.023082547554969, 11.515356121657273, 14.229755593891245, 9.480536844081513, 9.480536844081513, 9.480536844081513, 9.480536844081513, 11.841235810495307, 13.436293361016144, 13.436293361016144, 13.942637909299135, 10.544162862104415, 10.544162862104415, 9.136568648963936, 9.136568648963936, 9.136568648963936, 9.136568648963936, 9.136568648963936, 7.135623803368649, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 8.734870836523616, 10.523740498913709, 10.523740498913709, 10.523740498913709, 10.523740498913709, 5.705604621317626, 5.705604621317626, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 10.186220163501703, 12.44739625188519, 8.297670248029284, 8.297670248029284, 8.297670248029284, 8.297670248029284, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 7.42297820220935, 7.42297820220935, 7.42297820220935, 4.8889920068507315, 4.8889920068507315, 4.8889920068507315, 4.8889920068507315, 4.8889920068507315, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 5.038940978186662, 5.038940978186662, 5.038940978186662, 5.038940978186662, 5.038940978186662, 5.038940978186662, 5.038940978186662, 5.038940978186662, 5.038940978186662, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 9.000110181938895, 9.611268004519477, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 7.7504707540057, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 9.651792562246527, 9.651792562246527, 9.651792562246527, 8.480674953704062, 6.016164240665717, 7.169544965870192, 7.169544965870192, 7.169544965870192, 7.169544965870192, 5.812845240615574, 5.812845240615574, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.823479703884995, 7.823479703884995, 4.392637520881781, 4.392637520881781, 4.392637520881781, 4.392637520881781, 4.392637520881781, 5.673452996742417, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 1041.5748410869717, 1022.0148741301344, 1011.2688284245851, 1011.6237995751758, 1064.0566987582697, 1023.4327859765374, 1022.7738381863899, 1013.2956749240104, 1094.366451577206, 6.055298298742531, 14.600528071161717, 6.8172197916618416, 7.584710684143398, 10.964871262000724, 10.283938535153338, 11.87585419754587, 16.25163359696649, 9.485288960726983, 8.613928444699853, 10.444010300241722, 13.801848416716911, 7.981487464312948, 13.220469352811838, 12.78334503821919, 13.594958145418056, 12.911128137963015, 16.36723465647735, 8.820176514094799, 12.944032991015183, 14.032425891425609, 9.290776339424179, 12.812300406722906, 15.581178568023237, 8.710610349375859, 16.337499711188777, 10.996616403224174, 11.234207288037373, 12.857021651101695, 12.861085478685263, 8.604735240179776, 16.147351998502042, 11.270059413875895, 6.4315277990095785, 9.293869552544267, 11.872486631982607, 12.566254245359218, 11.232537946955484, 10.94942403096557, 10.94942403096557, 9.583779125355292, 9.726822029944765, 9.726822029944765, 9.15438437538685, 10.443570138633595, 12.628951421508516, 12.628951421508516, 10.895544712220468, 15.316976190916666, 10.968099855565772, 10.968099855565772, 13.980930651578849, 14.714966308143268, 11.084000856929961, 11.084000856929961, 7.135154998397439, 12.557791806761362, 14.711627585862608, 14.711627585862608, 4.068057527313768, 11.51734225368037, 9.829919902263567, 9.829919902263567, 8.048680154446906, 11.961179558880639, 7.601329397277342, 4.866971867411551, 13.611561826361669, 14.332149307052804, 9.530888186876004, 8.382406719536366, 5.958622642577761, 8.666849049636197, 15.355687417094778, 5.438977937611103, 9.116660950913671, 8.374871066776235, 13.332437867897415, 8.715431467377943, 12.670306779313842, 12.670306779313842, 9.394427767170983, 6.698748884308592, 6.698748884308592, 10.262801815040435, 10.262801815040435, 10.451705880651415, 10.451705880651415, 10.451705880651415, 8.157724078062586, 8.157724078062586, 7.719370117796927, 10.430154987147175, 8.70310403255515, 11.101869501865325, 15.008286986717147, 4.966157617541397, 8.595383300420043, 12.660754377800483, 13.308214099736537, 10.043298934674338, 10.043298934674338, 10.043298934674338, 5.850653973373071, 4.801330669545687, 4.801330669545687, 6.607210897896101, 10.351177733045136, 10.351177733045136, 4.919959774714666, 7.08623800905421, 8.555393558247456, 6.050582024257408, 7.07102585023359, 7.07102585023359, 7.07102585023359, 7.07102585023359, 15.654603128547484, 14.283426374816855, 14.971905113059021, 14.971905113059021, 14.971905113059021, 14.971905113059021, 8.42700015980509, 8.42700015980509, 5.699374506280093, 6.4850723330210895, 12.315465391282412, 12.315465391282412, 12.315465391282412, 12.315465391282412, 8.705825955137612, 8.705825955137612, 8.705825955137612, 8.705825955137612, 9.04221755213242, 9.04221755213242, 9.04221755213242, 7.417997439252002, 14.01052595959565, 14.01052595959565, 14.01052595959565, 14.01052595959565, 14.01052595959565, 14.01052595959565, 10.767431417527298, 10.767431417527298, 10.767431417527298, 10.767431417527298, 4.117291205213596, 4.117291205213596, 4.117291205213596, 4.117291205213596, 13.557534660866105, 13.557534660866105, 13.557534660866105, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 11.16677282920976, 11.16677282920976, 4.639853799836582, 8.590676652403259, 8.590676652403259, 12.102346575666932, 13.895543717162301, 6.122882481229062, 6.302142824846031, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 14.823160583202277, 9.852721245614855, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 7.0062969063090295, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 7.30473835867871, 7.531404685618283, 4.8818537488764955, 4.8818537488764955, 6.822175514567332, 7.292651150009884, 7.292651150009884, 7.292651150009884, 7.292651150009884, 7.292651150009884, 7.292651150009884, 7.292651150009884, 5.092513818185174, 5.092513818185174, 5.092513818185174, 4.572545918790436, 4.572545918790436, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 4.638288882417336, 4.638288882417336, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.498920025603061, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 4.639853799836582, 4.639853799836582, 4.639853799836582, 4.639853799836582, 4.639853799836582, 4.639853799836582, 4.639853799836582, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.572545918790436, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 5.152303083263493, 5.152303083263493, 5.152303083263493, 5.152303083263493, 5.152303083263493, 5.152303083263493, 4.996526371343058, 4.996526371343058, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 5.680355130740864]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[13.544121976109993, 13.291495694789738, 13.048388725312998, 12.88482574055124, 12.622445749273556, 12.622582107904213, 12.359416431900954, 12.245882248193945, 12.178341936991242, 11.898729993694674, 11.778524590724619, 11.586650741576817, 11.456141040185848, 11.431150357039437, 11.237157353502267, 11.32187102706439, 11.157925981865086, 10.956798265447903, 10.956663421557165, 10.835061740974753, 10.813863960853695, 10.902342360695384, 11.131063179382975, 11.174045420861855, 11.208758809979622, 11.093937689138786, 11.022268856803775, 10.779376669067764, 10.691473095780113, 10.577453498482749, 10.56582263545569, 10.52721858187709, 10.502146317287444, 10.490868803444686, 10.526690170360542, 10.467210225062987, 10.509703044823583, 10.523381879608053, 10.370361639072632, 10.193421409379477, 9.910248393268795, 9.858151508785932, 9.887447566074009, 10.020297539345954, 9.989891318869399, 10.003223943434733, 9.763274654700748, 9.905962056080966, 9.959156988166669, 9.89412830182809, 9.86626189967764, 9.87436793331206, 9.899903520337181, 9.977974371089488, 9.876399097809275, 9.961183118774983, 9.931629157519048, 9.963899323277587, 9.81222108729145, 9.607100407404337, 9.538147349947147, 9.60472799831348, 9.61979270840948, 9.60595490220982, 9.681710260992435, 9.962337107877676, 10.073820994720354, 10.046633603877618, 10.06481266812495, 10.028269834435948, 9.968918703026857, 9.8654618474214, 9.776276190550636, 9.7738897558808, 9.895143598748009, 9.849361865627724, 9.753483420621608, 9.83995478251163, 9.804699089246684, 9.869557262127664, 9.961927757844817, 9.99328503823231, 10.128685842857237, 10.151941956849436, 10.078371895653037, 10.111931242830723, 9.988760831512241, 9.80053588282928, 9.967001256055449, 9.890155660422149, 9.96204552523252, 9.896143145398263, 9.909247382088106, 9.918544912892257, 9.887717881303855, 9.890891296231354, 9.967096715833398, 9.842644102302812, 9.713702593166106, 9.618936050109548, 9.546261223329786, 9.604894404170592, 9.589496895352909, 9.56579933483647, 9.676479726783134, 9.564601929339789, 9.49930384698753, 9.480411291177818, 9.516898647060206, 9.483784637830121, 9.555203181740604, 9.500992500298509, 9.445680340301658, 9.479968789885504, 9.479968789885504, 9.517682248532015, 9.595743014510925, 9.633286180469298, 9.625051661667746, 9.547259837843088, 9.515893078445847, 9.50778200686077, 9.545233540237753, 9.583613554104886, 9.592521507509737, 9.631422135487938, 9.683141134690954, 9.789313262580308, 9.914034747544308, 9.912659084858275, 9.946339937425934, 9.984506631387696, 9.954424952543983, 9.992553645163502, 9.955238814940273, 9.946981888289724, 9.803597005662626, 9.763881497443029, 9.713988884681129, 9.617680746661659, 9.467935732575427, 9.445139706503113, 9.489955929321864, 9.534765294317998, 9.579567803065485, 9.624363457137807, 9.590551465577102, 9.487856624222417, 9.369992802226067, 9.3013686020223, 9.183758394613712, 9.051824951236041, 8.950130864418348, 8.871044935563654, 8.809751699312086, 8.741899561375932, 8.62506305456053, 8.489482792369367, 8.422622933425775, 8.355340987258879, 8.355340987258879, 8.16083456789205, 8.16083456789205, 8.094125255883574, 8.027254010841668, 8.027254010841668, 7.96061519719896, 7.893919897859995, 7.778241961496915, 7.6789629902342735, 7.5799063940934674, 7.5799063940934674, 7.513774678506969, 7.398697791558936, 7.381769972421568, 7.315898139138203, 7.1724990264764825, 7.1126946661445185, 7.1475507695238605, 7.185818008746391, 7.137114690439899, 7.137114690439899, 7.09427067063529, 7.076746203867443, 7.062085984053676, 7.062671436348248, 7.000835562824574, 6.939090463477905, 6.939770515550242, 6.939770515550242, 6.939770515550242, 6.939770515550242, 6.939770515550242, 6.891613665539364, 6.84349740714461, 6.782012816651175, 6.733998170886323, 6.734835831660379, 6.644178240553225, 6.499105675454876, 6.429563883765523, 6.429563883765523, 6.4241346358151405, 6.315792004769768, 6.305476338614789, 6.354227027309316, 6.402943057941022, 6.451624467455676, 6.451624467455676, 6.4683590445650365, 6.453140800022602, 6.5016815918204784, 6.550187986267024, 6.598660019911659, 6.647097729252049, 6.695501150734185, 6.743870320752479, 6.780778449398553, 6.845524829185598, 6.8937766104253875, 6.941994304995724, 6.953346764781679, 6.853476785425359, 6.80107463778029, 6.798663226057399, 6.859853909998884, 6.921039019575372, 6.918482987119388, 6.918247054369589, 6.886650591342616, 6.85507045437891, 6.7916819404700375, 6.7916819404700375, 6.728443223089641, 6.762029314585131, 6.762029314585131, 6.698935541643949, 6.698935541643949, 6.635990434083972, 6.573193467081913, 6.512902356159764, 6.512902356159764, 6.450407129145971, 6.41922868253816, 6.356932483186907, 6.23277717202308, 6.23277717202308, 6.201771526245512, 6.139963356154759, 6.078299366545648, 6.078299366545648, 6.078299366545648, 6.016779053509236, 6.016779053509236, 5.957822842902781, 5.8965950647084515, 5.837942931711901, 5.777005549762607, 5.777005549762607, 5.746384091154172, 5.698095587219881, 5.653128040768208, 5.59512509095501, 5.59512509095501, 5.59512509095501, 5.537273685206608, 5.479573230390024, 5.419548995951157, 5.496542296052301, 5.496542296052301, 5.496542296052301, 5.496542296052301, 5.496542296052301, 5.492946846475387, 5.492946846475387, 5.489359331368947, 5.498166057017289, 5.471024458582568, 5.443939644849965, 5.426820097312666, 5.397384089099955, 5.370460475105155, 5.341131492163142, 5.3118546669874185, 5.282629860567925, 5.282629860567925, 5.25345693438815, 5.224335750422931, 5.224335750422931, 5.195266171136295, 5.195266171136295, 5.137281278887764, 5.058339792911854, 4.966816666158846, 4.966816666158846, 4.9693158744260275, 4.981677447655075, 4.981677447655075, 4.984173317039208, 4.984173317039208, 4.986668434400333, 4.999017690080404, 5.011359804459593, 5.023694783730591, 5.036022634078937, 5.038506691313232, 5.040990001173672, 5.043472563997496, 5.045954380121741, 5.048435449883245, 5.050915773618639, 5.053395351664353, 5.068811720695991, 5.071287461059735, 5.073762457568363, 5.089162999268593, 5.0916341656343365, 5.094104589974454, 5.096574272623116, 5.099043213914283, 5.101511414181721, 5.103978873758996, 5.106445592979472, 5.108911572176311, 5.111376811682481, 5.12674001100272, 5.129201438300695, 5.129201438300695, 5.1316621277252805, 5.190543544975113, 5.192991980286939, 5.20520381998102, 5.20520381998102, 5.20520381998102, 5.20520381998102, 5.218061957321337, 5.218061957321337, 5.230915926006717, 5.230915926006717, 5.230915926006717, 5.24376572806407, 5.256611365518995, 5.3103763369548025, 5.3103763369548025, 5.320109215597675, 5.332928406848918, 5.332928406848918, 5.389786932498106, 5.389786932498106, 5.443344176441457, 5.456120968168055, 5.468893631419127, 5.481662168195358, 5.494426580496137, 5.504109529226966, 5.516866505597262, 5.599644213536206, 5.656115223466231, 5.678469984302858, 5.691175793644679, 5.703877508077193, 5.71657512957968, 5.8016482950554735, 5.814297062493659, 5.814297062493659, 5.921357076949413, 5.98671294374562, 5.999309474395927, 6.0119019644705265, 6.024490415913242, 6.08027173674881, 6.172358419571814, 6.130902493012575, 6.133939831162853, 6.180068157588453, 6.183102253735049, 6.186136203613818, 6.186136203613818, 6.189170007235335, 6.192203664610176, 6.177877428879355, 6.1809034886856224, 6.157574426770557, 6.182491611219229, 6.213291112279419, 6.235031112714347, 6.235031112714347, 6.277669505242548, 6.317106054392524, 6.39578534876919, 6.435123127023316, 6.4564692609285395, 6.4956879975287825, 6.499288907045097, 6.541546782929591, 6.562657835703473, 6.601661328594906, 6.6226423474100224, 6.664650208545524, 6.755402217330708, 6.763614787692784, 6.737325175081154, 6.77902376353932, 6.771879709711742, 6.750606223732072, 6.771112038307227, 6.800449011284379, 6.8387261258031105, 6.817391526528899, 6.837704332710399, 6.840231774101908, 6.9168855447832325, 6.9579662805285745, 6.995933289103341, 6.957342059796817, 6.921856406982973, 6.886412333038119, 6.87000130140198, 6.9011985211044165, 6.913120185693374, 6.925035477868615, 6.916094626277677, 6.907172896647964, 6.924728825242887, 6.914908990729467, 6.917948800236226, 6.904448458854868, 6.840979715816896, 6.844016133040263, 6.850088957689888, 6.853125365116155, 6.835495884300017, 6.8178945692943405, 6.800321352654176, 6.741865410564537, 6.72439844398175, 6.685912678631695, 6.665498758034692, 6.599472408281053, 6.371819293446833, 6.351749125450114, 6.351749125450114, 6.331710671489767, 6.331710671489767, 6.332951411511946, 6.312946812016218, 6.292973768041671, 6.273032204982999, 6.2531220484698915, 6.171315439055599, 6.151542420820861, 6.105801502251312, 6.046618324934938, 5.985279406505205, 5.985279406505205, 5.965762131741093, 5.919309094898944, 5.943802661549291, 5.9633025837272085, 5.98274145557777, 6.0277257196924685, 6.0277257196924685, 6.072654678795818, 6.093254066681891, 6.093254066681891, 6.051829384515591, 6.051829384515591, 6.0127795095808585, 6.0127795095808585, 6.0127795095808585, 6.0127795095808585, 5.9738062663734155, 5.9738062663734155, 5.9738062663734155, 5.9230025123314585, 5.928419815394543, 5.928419815394543, 5.887242084761338, 5.887242084761338, 5.887242084761338, 5.887242084761338, 5.887242084761338, 5.86190084798636, 5.86190084798636, 5.86190084798636, 5.86190084798636, 5.86190084798636, 5.823226379306588, 5.823226379306588, 5.823226379306588, 5.823226379306588, 5.806851081554068, 5.765945615778991, 5.740847575959061, 5.700034855543917, 5.661734444048058, 5.623508409862999, 5.5986285271875955, 5.5986285271875955, 5.558025873128356, 5.5545095887143905, 10.742047207206454, 10.771940584556416, 10.548656467643632, 10.520445479273912, 10.446717061248831, 10.380004568949026, 10.424821318600525, 10.430253028861122, 10.246406493609355, 10.098677732945797, 10.130261400975126, 10.137311144442782, 10.23990565815914, 10.384939008949233, 10.422034739248193, 10.492811673386829, 10.447726917186737, 10.327685001998221, 10.300127650145445, 10.317791181658967, 10.35054743153797, 10.227484735752789, 10.279819106154234, 10.274384181074007, 10.276642582441205, 10.252995476730613, 10.296871194971544, 10.20231012751514, 10.246280290437191, 10.233909981857892, 10.24068840965243, 10.270762040660104, 10.221288476829562, 10.087735805979744, 10.127360425704317, 10.055013583261736, 9.967808546573702, 10.023147171490477, 10.045262015309483, 10.002704895546307, 10.045891996188162, 9.897206202016378, 9.884318641637341, 9.971973335631336, 9.88089527967758, 9.84232219840622, 9.814180239427818, 9.737323901298598, 9.65773370817047, 9.612192622762903, 9.640618850861665, 9.700321930347917, 9.696536210333798, 9.686058043097342, 9.767095231649545, 9.767095231649545, 9.824128990343066, 9.818411095009434, 9.593343240189078, 9.515809583784518, 9.46703993400698, 9.375984551230431, 9.263086109635053, 9.296644097805581, 9.28293990195976, 9.332740798521273, 9.281594455398437, 9.281594455398437, 9.09651513367436, 8.985422305639508, 8.967479825226718, 9.052093924047155, 9.037578697610988, 9.057377813821994, 8.85880554879021, 8.789483870267846, 8.985058925169481, 8.822963124697623, 8.752187109001028, 8.811255549976455, 8.746921335523572, 8.924298211744716, 8.871247817937569, 8.83572572979879, 8.835925493280017, 8.767198246860781, 8.806576432057412, 8.687300016914556, 8.65449210653116, 8.525027936824015, 8.559208312020184, 8.671447971504234, 8.741995981808822, 8.811742553399197, 8.811742553399197, 8.84097581156743, 8.763537202381851, 8.819771879425273, 8.924511228248882, 8.960587129030221, 9.012262262816712, 9.030541377194293, 8.92628452848316, 9.002964970885493, 9.033162831846452, 8.837197687571484, 8.876371772252744, 8.950309169513078, 8.980761801584345, 8.96414520631337, 8.951258643118102, 8.951258643118102, 8.968956497654316, 8.930873410059144, 9.046947871934703, 9.227350867487647, 9.372857652333668, 9.46349192936728, 9.444100906391471, 9.529106422417414, 9.572399535194823, 9.571810368267442, 9.470374386376283, 9.5723073898659, 9.615953392237733, 9.768536601313953, 10.013948400761667, 9.81421558100174, 9.71878594160555, 9.610168630739322, 9.421573148375247, 9.341390086388314, 9.153914120452523, 9.153914120452523, 9.21576022228934, 9.206762594185237, 9.291043695643124, 9.316632421632802, 9.288816707627575, 9.261087602078145, 9.125751315908412, 9.227963626642115, 9.26941154528371, 9.310733233755961, 9.351929267835507, 9.386616824767886, 9.386616824767886, 9.314286321681786, 9.351163889386356, 9.290888834515277, 9.123767256442537, 8.957868867298652, 8.957868867298652, 8.89845850085344, 8.709538132426019, 8.71191921566427, 8.670445528977803, 8.672873417100755, 8.570042275806902, 8.6700900065645, 8.799133935005955, 8.834306677488591, 8.962657543451924, 8.80664853537844, 8.755546488804438, 8.704559386962366, 8.704559386962366, 8.704559386962366, 8.733394960705748, 8.658086884280937, 8.68689778198811, 8.715650379861405, 8.640631399321375, 8.6693594049385, 8.655018924579254, 8.683692616686711, 8.712308568861149, 8.740866955332649, 8.73495177913577, 8.626044827225567, 8.656807069115828, 8.498485728570746, 8.400114249463627, 8.269325398165071, 8.109612456096059, 8.198918764170658, 8.196007944137431, 8.091752909652739, 8.091752909652739, 8.091752909652739, 8.091752909652739, 7.991809146110905, 8.071360846345478, 7.9505648093946375, 7.9505648093946375, 7.850987132873763, 7.7514979310521746, 7.664294293050664, 7.577356434996997, 7.445620255050833, 7.445620255050833, 7.3471124487269455, 7.248953376750006, 7.248953376750006, 7.1517893083170945, 7.054450668008193, 6.958798918884155, 6.874822868163765, 6.780691527285743, 6.687498281429647, 6.595229176811271, 6.513156549958445, 6.4521803841168195, 6.361960668253292, 6.267991890767678, 6.174102466062995, 6.0802922936664086, 5.986561273274634, 5.817357792219481, 5.739203578625952, 5.746183613351592, 5.753101691108471, 5.766517325757194, 5.773308093711872, 5.780039175367765, 5.786711354185663, 5.793325399974166, 5.806453839895641, 5.806453839895641, 5.806453839895641, 5.8129470913888275, 5.819384313077131, 5.825766227060874, 5.838680687080021, 5.872396672971281, 5.872396672971281, 5.896155226556041, 5.908918182649075, 5.921656144960512, 5.958503678503807, 5.964185625041185, 5.964185625041185, 5.996997912355433, 6.009484186862753, 6.021946352467275, 6.027312875331589, 6.032634691446293, 6.064839714452284, 6.0699700318173155, 6.104343443384746, 6.116502622446648, 6.097498437597837, 6.117057720460458, 6.109877538084521, 6.102742479228336, 6.122136949222205, 6.122136949222205, 6.114997939539587, 6.08335575750898, 6.076399988493678, 6.030929884695886, 6.02420271279377, 6.017516710080494, 6.036544876756828, 6.012672478359333, 6.00551665574133, 5.977805998033559, 5.997103784761471, 5.968932133517225, 5.952638252429735, 5.9274629221435875, 5.9023569298779925, 5.9023569298779925, 5.877319989570203, 5.852351816728896, 5.827452128423395, 5.760930600279875, 5.777857081436306, 5.794768330401249, 5.8116643677267, 5.838723696174505, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.804777794760419, 5.804777794760419, 5.774333196564569, 5.774333196564569, 5.774333196564569, 5.774333196564569, 5.774333196564569, 5.743919402903236, 5.743919402903236, 5.743919402903236, 5.713536367046973, 5.713536367046973, 5.713536367046973, 5.713536367046973, 5.683184042360797, 5.652862382303961, 5.622571340429702, 5.59231087038502, 5.59231087038502, 5.5620809259104265, 5.5318814608397195, 5.501712429099741, 5.4715737847101495, 5.441465481783182, 5.441465481783182, 5.441465481783182, 5.411387474523421, 5.411387474523421, 5.381339717227563, 5.351322164284192, 5.351322164284192, 5.321334770173537, 5.291377489467255, 5.261450276828192, 5.231553087010162, 5.201685874857711, 5.201685874857711, 5.171848595305896, 5.112263654195579, 5.082515902957699, 5.082515902957699, 5.082515902957699, 5.052797904961241, 4.993450990318607, 4.963821984708111, 4.934222554409955, 4.9046526551636545, 4.875112242796995, 4.84560127322582, 4.84560127322582, 4.816119702453803, 4.786667486572231, 4.757244581759788, 4.72785094428234, 4.72785094428234, 4.698486530492714, 4.669151296830481, 4.639845199821746, 4.610568196078931, 4.581320242300556, 4.552101295271036, 4.522911311860454, 4.493750249024365, 4.4681045597523905, 4.464618063803571, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.5296275783677205, 4.5296275783677205, 4.5296275783677205, 4.583837446100494, 4.583837446100494, 4.638011832659825, 4.703133118238792, 4.7571786914607985, 4.768003992471711, 4.768003992471711, 4.778881505807209, 4.832760792484711, 4.846693646772674, 4.846693646772674, 4.857368467722911, 4.871259379502133, 4.871259379502133, 4.924954685495431, 4.924954685495431, 4.924954685495431, 4.978615108645082, 4.978615108645082, 4.978615108645082, 4.99241300035118, 4.99241300035118, 5.046000774166191, 5.056382142191964, 5.066736864591039, 5.0770650438180445, 5.090736017222579, 5.090736017222579, 5.101013901670532, 5.164612223564586, 5.164612223564586, 5.1781853833015035, 5.1781853833015035, 5.1781853833015035, 5.231286127040161, 5.2843526925843, 5.3373851129214005, 5.3508304530356, 5.403791820619375, 5.413618904073925, 5.4269877380100855, 5.5422328199813125, 5.566243953874969]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[0.023501500270270294, 0.03348986782035479, 0.03961097421190246, 0.04974411002364298, 0.05815251094443879, 0.05841224004899959, 0.07203131524108099, 0.07532, 11.915005281014361, 14.865649762885218, 14.984863370194217, 15.05152292616667, 15.088860982259924, 15.134782018580367, 15.276328303959684, 15.87476738488929, 15.969101842600814, 16.100974722013756, 16.188288498486383, 16.224734922823156, 16.254052796969912, 16.261316871108026, 16.43294981165797, 16.509413194086534, 16.512847817311062, 16.529083454450546, 16.56037161703187, 16.681236587058766, 16.900204648859084, 16.996184933860466, 16.996184933860466, 17.097620557425206, 17.116905761060696, 17.117507692903082, 17.173667030607202, 17.21616468692559, 17.241172277675624, 17.243663420384177, 17.298882244061367, 17.34043061433457, 17.446087697796333, 17.556721652356778, 17.556721652356778, 17.57241463234143, 17.616822221375216, 17.67216408280056, 17.808498179113805, 17.835257658541742, 17.85339445260119, 18.099286754429027, 18.099286754429027, 18.161763465165155, 18.298362800633964, 18.316269245724364, 18.334712765571403, 18.33631090702178, 18.38548802453832, 18.38548802453832, 18.40409071363668, 18.58397142490935, 18.61796928948849, 18.702037979203993, 18.81185114821136, 18.922049518217463, 18.961210486674812, 19.082502999385582, 19.140793255248365, 19.162620235557785, 19.182703365415847, 19.196369996111915, 19.196369996111915, 19.224148697789463, 19.306688149068357, 19.31500950794368, 19.379203058127715, 19.379203058127715, 19.398031429455507, 19.50353371345375, 19.62920750007821, 19.62920750007821, 19.645166337503166, 19.645166337503166, 19.6668843946864, 19.6668843946864, 19.694289222057606, 19.732232276730215, 19.760469758760234, 19.915007268394174, 20.00154838359369, 20.00552829166546, 20.00552829166546, 20.054645850634113, 20.067476318901676, 20.06878124887113, 20.075319479105417, 20.134071808671926, 20.15528375318946, 20.224317754667236, 20.237778897041274, 20.279658412235186, 20.280022686157125, 20.380154290529227, 20.380154290529227, 20.382488683550264, 20.440319700047578, 20.455379758379202, 20.455379758379202, 20.474972896977256, 20.474972896977256, 20.513102959623897, 20.53103012354006, 20.53103012354006, 20.573946921820017, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.17068152006771, 21.188414466685398, 21.189029712622567, 21.194802412986157, 21.296707843546034, 21.296707843546034, 21.500741621809496, 21.536459435551368, 21.715060245493746, 21.728727327145105, 21.728727327145105, 21.728727327145105, 21.728727327145105, 21.87271701577289, 21.955459893121155, 21.955459893121155, 22.018788840183845, 22.097534251618875, 22.097534251618875, 22.10895662923808, 22.10895662923808, 22.10895662923808, 22.10895662923808, 22.10895662923808, 22.142422912683536, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.194648886005258, 22.209830417734022, 22.235439958269037, 22.235439958269037, 22.235439958269037, 22.235439958269037, 22.258815398020204, 22.258815398020204, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.27032154243646, 22.383180055046125, 22.414326205590566, 22.656962060483234, 22.656962060483234, 22.656962060483234, 22.656962060483234, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.767142162656413, 22.767142162656413, 22.767142162656413, 23.113148853926948, 23.113148853926948, 23.113148853926948, 23.113148853926948, 23.113148853926948, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.166476773311036, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.21916460353227, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.555267181665638, 23.826200652434, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.55747508897593, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.772688794518455, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.913982993410663, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.969454994576203, 24.969454994576203, 24.969454994576203, 25.23384060445947, 25.265267688765835, 25.38515357200358, 25.38515357200358, 25.38515357200358, 25.38515357200358, 25.632886105225307, 25.632886105225307, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.947533282305823, 25.947533282305823, 25.952517014678588, 25.952517014678588, 25.952517014678588, 25.952517014678588, 25.952517014678588, 26.615184806625027, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 26.786726643168574, 0.024962200481788512, 0.0410952923124014, 0.05735369109552784, 0.059310585639836245, 0.062026769886436045, 0.07328278029361412, 0.07430772783039234, 0.07895030244355815, 0.10142854785070055, 12.550991916580308, 13.355681318482919, 13.788612201556363, 14.107327814585503, 14.409653905154036, 14.585851469965387, 14.904191063290153, 15.136939836369315, 15.392256430405057, 15.556200734689194, 15.702780377017083, 16.157256134613142, 16.162400877880025, 16.262660141810475, 16.27117154220034, 16.32958318998733, 16.342491356707225, 16.435274843056213, 16.439580292785234, 16.45545867720279, 16.46187208023315, 16.467945671102292, 16.46854923018223, 16.622619326854874, 16.646365086275463, 16.710023248724852, 16.82335667776486, 16.912630782798487, 16.955715399399672, 17.10586562577529, 17.19983193775848, 17.27837480881585, 17.302481986910607, 17.41421377627372, 17.43084504082062, 17.603725864553677, 17.66636227991215, 17.71638795611083, 17.717826933303286, 17.717826933303286, 17.738305294436522, 17.78587080830782, 17.78587080830782, 17.805675763217213, 18.001506908498378, 18.053755406144845, 18.053755406144845, 18.080784871548857, 18.215083481389343, 18.234699048487403, 18.234699048487403, 18.382181158374983, 18.75641399513511, 18.765787073171673, 18.765787073171673, 18.78025074859572, 18.79311296377226, 18.896617548091612, 18.896617548091612, 18.927952587446537, 19.01480351771421, 19.02355277146652, 19.02355277146652, 19.13357184592741, 19.145268982270046, 19.20716658487324, 19.313857273227455, 19.32180916157945, 19.327177945577862, 19.410572904920265, 19.44548927936243, 19.467586212141338, 19.499589646954103, 19.53673527282301, 19.672813757909143, 19.853760162251092, 19.940605493319413, 19.951339930148077, 19.964588173435352, 20.046870563125808, 20.046870563125808, 20.118308925687238, 20.153016978473282, 20.153016978473282, 20.26736984194413, 20.26736984194413, 20.28377017310277, 20.28377017310277, 20.28377017310277, 20.348812783016324, 20.348812783016324, 20.467991246556846, 20.517432412433656, 20.567374505742553, 20.71723145019455, 20.721885200839093, 20.740380779736984, 20.825132951459253, 20.851838059736846, 20.889354342856837, 20.909464247347866, 20.909464247347866, 20.909464247347866, 21.02329082522837, 21.035835053109732, 21.035835053109732, 21.037621191153598, 21.060405455512182, 21.060405455512182, 21.138384206816305, 21.167790272968873, 21.27313007413327, 21.32026299004388, 21.35475151671405, 21.35475151671405, 21.35475151671405, 21.35475151671405, 21.399456584696125, 21.42343104309407, 21.440157252934533, 21.440157252934533, 21.440157252934533, 21.440157252934533, 21.47858034503543, 21.47858034503543, 21.581315610066916, 21.588039856878606, 21.680057676829477, 21.680057676829477, 21.680057676829477, 21.680057676829477, 21.709600096986144, 21.709600096986144, 21.709600096986144, 21.709600096986144, 21.786691026200934, 21.786691026200934, 21.786691026200934, 21.838778097008262, 21.840721817472105, 21.840721817472105, 21.840721817472105, 21.840721817472105, 21.840721817472105, 21.840721817472105, 21.917947823269866, 21.917947823269866, 21.917947823269866, 21.917947823269866, 22.101910082233086, 22.101910082233086, 22.101910082233086, 22.101910082233086, 22.127916874588678, 22.127916874588678, 22.127916874588678, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.25428584658498, 22.298295470708613, 22.298295470708613, 22.630023386447682, 22.69902685086493, 22.69902685086493, 22.88812324685349, 22.95700020762808, 23.028369470141573, 23.166723455456907, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.440106749255786, 23.611698600676483, 23.74978385835753, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 24.40661626058381, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.303015402955047, 25.326026876815206, 25.493252323386198, 26.424388487608404, 26.424388487608404, 27.557191924858166, 27.699117350447544, 27.699117350447544, 27.699117350447544, 27.699117350447544, 27.699117350447544, 27.699117350447544, 27.699117350447544, 29.06226772944584, 29.06226772944584, 29.06226772944584, 29.086640650988183, 29.086640650988183, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.731048969514195, 29.967947991966685, 29.967947991966685, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.500741621809496, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 21.87271701577289, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 22.755051745385565, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 23.469901461188456, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.743123259385666, 24.913982993410663, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 24.944274057924876, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.733988073858956, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 25.734695626070643, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 26.818334793801288, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.12175820346309, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 28.7483064453565, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 30.466375701254584, 22.630023386447682, 22.630023386447682, 22.630023386447682, 22.630023386447682, 22.630023386447682, 22.630023386447682, 22.630023386447682, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 22.95700020762808, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 23.98152811612121, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 26.424388487608404, 29.086640650988183, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 29.967947991966685, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.48552273128983, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 30.985157178754626, 31.44224968562766, 31.44224968562766, 31.44224968562766, 31.44224968562766, 31.44224968562766, 31.44224968562766, 32.022246678744594, 32.022246678744594, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 32.466480840770906, 33.096522254847116]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[13.77867094885682, 14.129335351898549, 14.453891891964304, 14.853130640151939, 15.535816425377458, 15.879476820712082, 16.675544604843495, 17.040830196679106, 17.388245550635034, 17.56153808942057, 17.61850547592509, 17.67551336169204, 17.752923893533058, 17.793484789109076, 17.79631571481666, 17.83274155988597, 17.928063004282684, 18.105654151321588, 18.13508294952814, 18.224169342133894, 18.28763527226654, 18.37403315476354, 18.415132202255865, 18.417680638363347, 18.44093565613763, 18.534446989125115, 18.584195564559952, 18.592911830896522, 18.60361039289386, 18.63964705950076, 18.698023506191433, 18.72479406282565, 18.790444737487732, 18.79157996287866, 18.858729266960143, 18.902839987510557, 18.969137296242845, 18.969187119097015, 19.009944576786157, 19.04561699189264, 19.153909414513656, 19.198325348451462, 19.23044332011548, 19.2668929482309, 19.305515329853144, 19.345763035427204, 19.382840972202516, 19.394380769111006, 19.481568593660274, 19.559075251151157, 19.589992842812638, 19.60429278181347, 19.66483810676262, 19.68335382470573, 19.70961258979281, 19.726572401789696, 19.78325981405062, 19.799477453482087, 19.83444912916476, 19.918601022689007, 19.970335224592173, 20.021389469203758, 20.039932859621246, 20.147918865981424, 20.213370853337178, 20.302464954740763, 20.329922489920637, 20.37100267307539, 20.387860834197546, 20.40431733272254, 20.429497527967886, 20.453173213856232, 20.521106000862723, 20.53634786285878, 20.593940650420013, 20.64093113580036, 20.696195532891476, 20.752127882022474, 20.787991364624318, 20.82970841953263, 20.891538772313393, 20.922049075964686, 20.93065213879673, 20.981207428623108, 20.993470194452524, 21.000933936389405, 21.07568732007857, 21.135578959811074, 21.141765169536537, 21.196835236772376, 21.24061764865917, 21.276975980072706, 21.29929669346138, 21.34184014480345, 21.363878150227382, 21.371178154646223, 21.410447403505163, 21.449520861026134, 21.489231114287474, 21.528368514066752, 21.533037405014525, 21.536936409230925, 21.552746953821696, 21.58732300059587, 21.623566204644973, 21.65693894322878, 21.690010480645956, 21.72479586319848, 21.759189382979038, 21.795096355888223, 21.795454899166543, 21.808247927097096, 21.8322018711692, 21.87770915673077, 21.87770915673077, 21.89818850404952, 21.913884071510594, 21.934363418829342, 21.95312892101275, 21.974891598571798, 21.996884399019173, 22.015649901202583, 22.036129248521334, 22.05431164422, 22.065105596510453, 22.094348789460398, 22.110593765174237, 22.148642523147704, 22.162520668431622, 22.1756844574407, 22.1910774605117, 22.200395891688903, 22.211227775994736, 22.22054620717194, 22.28977165941863, 22.29621029682328, 22.326499128184622, 22.331282908042304, 22.334800108958735, 22.33802573188676, 22.39347688752501, 22.39670418578898, 22.398418030924322, 22.400131876059667, 22.40184572119501, 22.403559566330355, 22.415812142984397, 22.44131719448806, 22.452525251675667, 22.47196180942178, 22.483169866609387, 22.50153986596782, 22.527044917471486, 22.53849478300451, 22.547741046494068, 22.567177604240182, 22.578385661427788, 22.625642185487198, 22.62715563861583, 22.64659219636194, 22.64659219636194, 22.669250119082573, 22.669250119082573, 22.6707635722112, 22.690200129957315, 22.690200129957315, 22.69171358308594, 22.711150140832057, 22.722358198019666, 22.74786324952333, 22.773368301026995, 22.773368301026995, 22.79280485877311, 22.804012915960715, 22.80482873740599, 22.82426529515211, 22.837228613813753, 22.84647487730331, 22.846987068114014, 22.850564793060443, 22.869185529361285, 22.869185529361285, 22.877615971405568, 22.8947026405237, 22.913909624633945, 22.931832729251436, 22.948689275481243, 22.965545821711054, 22.983468926328545, 22.983468926328545, 22.983468926328545, 22.983468926328545, 22.983468926328545, 22.993163530387527, 23.00285813444651, 23.01971468067632, 23.0294092847353, 23.047332389352793, 23.05476982315958, 23.070866591118417, 23.10887685168827, 23.10887685168827, 23.119067145944822, 23.122990733340917, 23.132272990503854, 23.140501491062363, 23.148729991620872, 23.156958492179385, 23.156958492179385, 23.17125548649544, 23.207303953367244, 23.215532453925757, 23.223760954484263, 23.231989455042775, 23.240217955601285, 23.248446456159794, 23.256674956718303, 23.25691676506372, 23.279442259938286, 23.287670760496795, 23.2958992610553, 23.303885953268395, 23.348733060612304, 23.384539719138694, 23.413426243839673, 23.41449280222735, 23.415559360615035, 23.444445885316014, 23.477045373425188, 23.483113867182738, 23.489182360940287, 23.517002327253582, 23.517002327253582, 23.54482229356688, 23.55801677114934, 23.55801677114934, 23.585836737462635, 23.585836737462635, 23.613656703775938, 23.641476670089233, 23.673009599810726, 23.673009599810726, 23.70082956612402, 23.706898059881567, 23.73471802619487, 23.790357958821463, 23.790357958821463, 23.796426452579013, 23.824246418892308, 23.852066385205607, 23.852066385205607, 23.852066385205607, 23.879886351518902, 23.879886351518902, 23.911419281240395, 23.939239247553697, 23.97077217727519, 23.998592143588485, 23.998592143588485, 24.00466063734603, 24.039610761748026, 24.075166707440303, 24.106699637161796, 24.106699637161796, 24.106699637161796, 24.13823256688329, 24.169765496604782, 24.19758546291808, 24.204307514480753, 24.204307514480753, 24.204307514480753, 24.204307514480753, 24.204307514480753, 24.231073724189624, 24.231073724189624, 24.2578399338985, 24.291736301696066, 24.31720073766001, 24.342665173623956, 24.371546804268394, 24.393298276824147, 24.418762712788094, 24.44051418534384, 24.46226565789959, 24.484017130455342, 24.484017130455342, 24.505768603011088, 24.52752007556684, 24.52752007556684, 24.549271548122586, 24.549271548122586, 24.59277449323409, 24.612818651380294, 24.627444140111134, 24.627444140111134, 24.631157103519328, 24.63828726160802, 24.63828726160802, 24.642000225016215, 24.642000225016215, 24.64571318842441, 24.652843346513105, 24.659973504601798, 24.667103662690494, 24.67423382077919, 24.677946784187384, 24.681659747595578, 24.68537271100377, 24.689085674411967, 24.69279863782016, 24.69651160122835, 24.700224564636546, 24.707960544015528, 24.711673507423725, 24.715386470831916, 24.723122450210898, 24.726835413619092, 24.73054837702729, 24.73426134043548, 24.73797430384368, 24.741687267251873, 24.74540023066007, 24.749113194068265, 24.752826157476463, 24.756539120884653, 24.764275100263635, 24.76798806367183, 24.76798806367183, 24.771701027080027, 24.798944250185876, 24.80265721359407, 24.809787371682763, 24.809787371682763, 24.809787371682763, 24.809787371682763, 24.813810387653547, 24.813810387653547, 24.81783340362433, 24.81783340362433, 24.81783340362433, 24.821856419595115, 24.8258794355659, 24.845696731855366, 24.845696731855366, 24.849113926535864, 24.85313694250665, 24.85313694250665, 24.872968389840352, 24.872968389840352, 24.89278568612982, 24.896808702100603, 24.900831718071387, 24.904854734042168, 24.90887775001296, 24.912294944693453, 24.916317960664237, 24.930155323536496, 24.949986770870197, 24.95742698152148, 24.961449997492263, 24.965473013463047, 24.96949602943383, 25.030817556411606, 25.03484057238239, 25.03484057238239, 25.0516896840179, 25.075529996278156, 25.079553012248944, 25.08357602821973, 25.08759904419052, 25.10743049152422, 25.11195712622803, 25.115388831496162, 25.115994652786444, 25.132408905439643, 25.13301472672993, 25.13362054802021, 25.13362054802021, 25.134226369310497, 25.134832190600783, 25.199593516092115, 25.2001993373824, 25.22097001780776, 25.258424890802917, 25.310257826034373, 25.347106877739243, 25.347106877739243, 25.36291530910216, 25.37870958942084, 25.379213208153864, 25.395007488472547, 25.431856540177424, 25.447650820496104, 25.476633269912753, 25.492441701275666, 25.529290752980543, 25.545085033299223, 25.581934085004097, 25.597742516367006, 25.63577925170966, 25.708146524901995, 25.72831138403707, 25.744119815399987, 25.80671947692334, 25.870269159834102, 25.90711821153898, 25.915935801820552, 25.931730082139232, 25.995279765049997, 26.032128816754867, 26.04590105770087, 26.046404676433895, 26.062213107796808, 26.078007388115484, 26.09329804970114, 26.108602862331026, 26.123907674960915, 26.133910624348903, 26.14328503205077, 26.15027587313211, 26.157266714213453, 26.185298175636753, 26.213329637060053, 26.23640644781892, 26.28523386839626, 26.285248019440495, 26.31057369499563, 26.31494427381202, 26.314958424856254, 26.31498672694472, 26.315000877988954, 26.336055649375144, 26.357110420761337, 26.378165192147527, 26.42592059473961, 26.446975366125802, 26.464599300781124, 26.485639921123084, 26.489996348895243, 26.58895241650086, 26.60999303684282, 26.60999303684282, 26.631033657184776, 26.631033657184776, 26.63529041030948, 26.65633103065144, 26.6773716509934, 26.698412271335357, 26.719452891677314, 26.775490838511864, 26.796531458853824, 26.84332268901426, 26.891063940562113, 26.92606126705471, 26.92606126705471, 26.94710188739667, 26.989636364432403, 27.023104424219454, 27.065539226607733, 27.107974028996015, 27.12465822156581, 27.12465822156581, 27.14134241413561, 27.144773250866482, 27.144773250866482, 27.158729957017115, 27.158729957017115, 27.185430588223007, 27.185430588223007, 27.185430588223007, 27.185430588223007, 27.212131219428898, 27.212131219428898, 27.212131219428898, 27.21254965947247, 27.25178125551623, 27.25178125551623, 27.26573796166687, 27.26573796166687, 27.26573796166687, 27.26573796166687, 27.26573796166687, 27.291488571485345, 27.291488571485345, 27.291488571485345, 27.291488571485345, 27.291488571485345, 27.318189202691237, 27.318189202691237, 27.318189202691237, 27.318189202691237, 27.391782183852957, 27.405738890003594, 27.431489499822074, 27.445446205972708, 27.4721468371786, 27.498847468384486, 27.524598078202967, 27.524598078202967, 27.538554784353604, 27.548786721136437, 13.626825238842638, 13.95291765863275, 14.587639712412955, 14.911916069435051, 15.602987909439417, 15.93448238884029, 15.93504530419143, 16.392699153787383, 16.79418048730798, 17.449809238401787, 17.509913414763968, 17.608219522575542, 17.69352238666731, 17.714114627102987, 17.75277137613405, 17.89415514587193, 17.925430238028174, 18.09505227588197, 18.110455164831468, 18.155048566303837, 18.252174703761412, 18.280154390886892, 18.39526532979469, 18.44587438623392, 18.49631321466536, 18.552626930511018, 18.603709454338706, 18.61147109103288, 18.63700724429939, 18.690803450400736, 18.729209631963574, 18.754207257207593, 18.843025557550906, 18.914056005203744, 18.942744400909213, 19.07903936791791, 19.145632573932076, 19.201553834051957, 19.248875709295554, 19.266788534950017, 19.287485877164592, 19.348894636648605, 19.408520400372446, 19.474580753850862, 19.595390348709167, 19.59903324758425, 19.610399982955755, 19.63167723880545, 19.70441573047367, 19.766561850836787, 19.78711148641149, 19.83233148150785, 19.864825523440103, 19.898703801114838, 19.913801942847574, 19.913801942847574, 19.967164538741457, 20.019532498482242, 20.097269030499117, 20.155930854988746, 20.190048983885386, 20.258139181241905, 20.317202903278925, 20.34282457307801, 20.372856228453458, 20.377722268910876, 20.451227524770307, 20.451227524770307, 20.552925736130902, 20.59335596100626, 20.623408538900648, 20.629481042382878, 20.684743807477563, 20.699147573804034, 20.842538983736368, 20.86129318926805, 20.86575074925996, 20.9589451283508, 20.993609678549483, 21.038999373987668, 21.129720150722843, 21.16917157153871, 21.205585038400503, 21.213877131547, 21.285829101098738, 21.320380210055056, 21.32724350365072, 21.355311735382042, 21.383115002247614, 21.44274498038793, 21.478622005474854, 21.505058972019796, 21.507674035912387, 21.525821805453166, 21.525821805453166, 21.547395226526014, 21.57348062020153, 21.585592303596613, 21.607906031828477, 21.61911906111511, 21.650501761920182, 21.67533393892877, 21.679792906274834, 21.712846893457744, 21.715539025648592, 21.721818022694002, 21.734105437433545, 21.75120393194095, 21.770981607095656, 21.78679567377511, 21.813692105759852, 21.813692105759852, 21.864304955798005, 21.8858773409381, 21.9035195963413, 21.91961733162855, 21.93567934415492, 21.943274380103368, 21.967151987924822, 21.989470020720194, 22.011199932192522, 22.039717867727155, 22.149071561706435, 22.155577684908746, 22.173568371506164, 22.175276486230572, 22.19504146667011, 22.231017670159055, 22.24763476622887, 22.263917338101884, 22.314744755365613, 22.324300566772322, 22.37512798403605, 22.37512798403605, 22.446330526231154, 22.494334776352243, 22.531376114199787, 22.54033329815497, 22.575534279603495, 22.610735261052017, 22.65676466983785, 22.65938710424757, 22.693997237292965, 22.728607370338356, 22.76321750338375, 22.796285817844847, 22.796285817844847, 22.84018255964325, 22.84849271463478, 22.88048041327046, 22.926932934670422, 22.9697490606434, 22.9697490606434, 23.00173675927908, 23.0069605245743, 23.037403703094018, 23.05302528364592, 23.083468462165637, 23.124740068022664, 23.127787583309704, 23.15455151665016, 23.218573623064593, 23.245337556405048, 23.282409781235696, 23.308653578729036, 23.33489737622238, 23.33489737622238, 23.33489737622238, 23.358613794275794, 23.39315863966652, 23.416875057719935, 23.440591475773353, 23.475136321164076, 23.49885273921749, 23.507747559303088, 23.531463977356506, 23.55518039540992, 23.578896813463338, 23.601733039034283, 23.635397691942536, 23.646131693322722, 23.79953399463031, 23.944912417452347, 24.081770931905563, 24.102261490075424, 24.110496235657706, 24.15322207460767, 24.279040919012836, 24.279040919012836, 24.279040919012836, 24.279040919012836, 24.289869346350148, 24.293301183378563, 24.352986818145613, 24.352986818145613, 24.363815245482918, 24.37464367282023, 24.411901845894214, 24.4491600189682, 24.562090697002844, 24.562090697002844, 24.572919124340157, 24.698737968745323, 24.698737968745323, 24.824556813150494, 24.835385240487803, 24.961204084892973, 24.998462257966956, 25.12428110237213, 25.250099946777297, 25.375918791182468, 25.413176964256454, 25.498357176280287, 25.624176020685454, 25.63500444802276, 25.645832875360064, 25.656661302697373, 25.667489730034678, 25.67488632034357, 25.679521205498844, 25.794511622566706, 25.909502039634567, 25.935931785371245, 26.050922202439107, 26.165912619506962, 26.280903036574824, 26.395893453642685, 26.422323199379363, 26.422323199379363, 26.422323199379363, 26.537313616447218, 26.65230403351508, 26.767294450582934, 26.793724196319612, 26.868075981006136, 26.868075981006136, 26.939589257180877, 26.96601900291755, 26.99244874865423, 27.134329140935964, 27.249319558003823, 27.249319558003823, 27.32367134269035, 27.350101088427028, 27.376530834163706, 27.491521251231564, 27.606511668299426, 27.680863452985953, 27.795853870053815, 27.82608835419912, 27.852518099935796, 27.95900675411441, 28.006928793064255, 28.09548946439544, 28.184050135726622, 28.23197217467647, 28.23197217467647, 28.320532846007655, 28.484278563868653, 28.572839235199837, 28.765050053097717, 28.8536107244289, 28.942171395760084, 28.990093434709934, 29.06527848123975, 29.109901782200613, 29.19465771512317, 29.260790924761285, 29.385490750528035, 29.428967891421152, 29.469606523802486, 29.510245156183817, 29.510245156183817, 29.55088378856515, 29.591522420946486, 29.632161053327817, 29.70006269328912, 29.71343831809049, 29.726813942891855, 29.740189567693218, 29.75307773406374, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.765965900434256, 29.796144850905286, 29.796144850905286, 29.8112343261408, 29.8112343261408, 29.8112343261408, 29.8112343261408, 29.8112343261408, 29.82632380137631, 29.82632380137631, 29.82632380137631, 29.84141327661182, 29.84141327661182, 29.84141327661182, 29.84141327661182, 29.856502751847334, 29.871592227082846, 29.88668170231836, 29.901771177553872, 29.901771177553872, 29.91686065278939, 29.9319501280249, 29.947039603260414, 29.962129078495927, 29.97721855373144, 29.97721855373144, 29.97721855373144, 29.992308028966953, 29.992308028966953, 30.00739750420247, 30.022486979437975, 30.022486979437975, 30.03757645467349, 30.052665929909004, 30.067755405144517, 30.08284488038003, 30.097934355615543, 30.097934355615543, 30.113023830851056, 30.143202781322085, 30.158292256557598, 30.158292256557598, 30.158292256557598, 30.17338173179311, 30.203560682264136, 30.218650157499653, 30.233739632735166, 30.24882910797068, 30.26391858320619, 30.279008058441704, 30.279008058441704, 30.294097533677217, 30.30918700891273, 30.324276484148246, 30.33936595938376, 30.33936595938376, 30.354455434619272, 30.369544909854785, 30.384634385090298, 30.39972386032581, 30.414813335561327, 30.42990281079684, 30.444992286032353, 30.460081761267865, 30.464819741716916, 30.47517123650338, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.485522731289844, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.49551542023914, 30.514649959325894, 30.514649959325894, 30.514649959325894, 30.52464264827519, 30.52464264827519, 30.534635337224486, 30.57536250512288, 30.585355194072175, 30.624974356261795, 30.624974356261795, 30.655708835210895, 30.665701524160184, 30.684836063246944, 30.684836063246944, 30.724455225436564, 30.74358976452332, 30.74358976452332, 30.753582453472614, 30.753582453472614, 30.753582453472614, 30.76357514242191, 30.76357514242191, 30.76357514242191, 30.782709681508667, 30.782709681508667, 30.792702370457963, 30.832321532647583, 30.871940694837207, 30.911559857026827, 30.930694396113587, 30.930694396113587, 30.970313558303204, 31.0110407262016, 31.0110407262016, 31.030175265288353, 31.030175265288353, 31.030175265288353, 31.04016795423765, 31.050160643186945, 31.06015333213624, 31.079287871223002, 31.0892805601723, 31.128899722361915, 31.148034261448675, 31.207638801536888, 31.259858792008032]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[25, 35, 41, 50, 62, 59, 74, 77, 83, 262, 294, 216, 272, 275, 104, 109, 312, 150, 327, 121, 91, 75, 294, 283, 236, 119, 335, 256, 284, 114, 114, 200, 273, 128, 263, 180, 279, 292, 280, 342, 231, 84, 84, 166, 188, 328, 121, 158, 231, 166, 166, 136, 241, 308, 92, 203, 265, 265, 317, 246, 111, 197, 124, 145, 181, 130, 138, 128, 184, 305, 305, 327, 219, 100, 230, 230, 136, 156, 221, 221, 154, 154, 203, 203, 183, 242, 295, 134, 180, 155, 155, 177, 222, 224, 300, 132, 316, 313, 336, 253, 132, 211, 211, 116, 307, 257, 257, 197, 197, 177, 255, 255, 219, 202, 202, 202, 202, 202, 202, 202, 202, 202, 182, 191, 131, 137, 137, 108, 248, 309, 206, 206, 206, 206, 259, 295, 295, 307, 233, 233, 202, 202, 202, 202, 202, 158, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 253, 194, 234, 234, 234, 234, 127, 127, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 178, 228, 279, 188, 188, 188, 188, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 169, 169, 169, 113, 113, 113, 113, 113, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 117, 117, 117, 117, 117, 117, 117, 117, 117, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 212, 229, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 120, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 192, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 137, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 241, 241, 241, 214, 152, 182, 182, 182, 182, 149, 149, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 203, 203, 114, 114, 114, 114, 114, 151, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 26, 42, 58, 60, 66, 75, 76, 80, 111, 76, 195, 94, 107, 158, 150, 177, 246, 146, 134, 164, 223, 129, 215, 208, 222, 211, 269, 145, 213, 231, 153, 211, 259, 145, 273, 185, 190, 218, 220, 148, 279, 195, 112, 162, 209, 222, 199, 194, 194, 170, 173, 173, 163, 188, 228, 228, 197, 279, 200, 200, 257, 276, 208, 208, 134, 236, 278, 278, 77, 219, 187, 187, 154, 229, 146, 94, 263, 277, 185, 163, 116, 169, 300, 107, 181, 167, 266, 174, 254, 254, 189, 135, 135, 208, 208, 212, 212, 212, 166, 166, 158, 214, 179, 230, 311, 103, 179, 264, 278, 210, 210, 210, 123, 101, 101, 139, 218, 218, 104, 150, 182, 129, 151, 151, 151, 151, 335, 306, 321, 321, 321, 321, 181, 181, 123, 140, 267, 267, 267, 267, 189, 189, 189, 189, 197, 197, 197, 162, 306, 306, 306, 306, 306, 306, 236, 236, 236, 236, 91, 91, 91, 91, 300, 300, 300, 208, 208, 208, 208, 208, 208, 208, 208, 208, 208, 208, 208, 249, 249, 105, 195, 195, 277, 319, 141, 146, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 252, 350, 234, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 171, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 185, 192, 129, 129, 188, 202, 202, 202, 202, 202, 202, 202, 148, 148, 148, 133, 133, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 177, 139, 139, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 108, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 259, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 126, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 150, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 124, 137, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 141, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 196, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 200, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 176, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 199, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 105, 105, 105, 105, 105, 105, 105, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 319, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 135, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 129, 133, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 139, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 136, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 221, 162, 162, 162, 162, 162, 162, 160, 160, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 162, 188]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[186.62, 187.8, 188.6, 191.38, 196.1, 200.44, 206.1, 208.68, 211.76, 208.96, 207.52, 204.8, 203.38, 203.4, 199.98, 201.9, 200.04, 198.38, 198.7, 197.46, 197.76, 200.32, 204.98, 205.8, 206.7, 205.62, 204.84, 200.42, 198.9, 197.16, 197.56, 197.12, 197.34, 197.14, 198.52, 197.86, 199.36, 199.62, 197.14, 194.14, 189.82, 189.26, 190.14, 193.06, 192.86, 193.52, 189.24, 192.12, 194.02, 193.52, 193.28, 193.58, 194.68, 196.4, 194.66, 196.5, 196.48, 197.28, 194.62, 191.36, 190.48, 192.3, 192.78, 193.54, 195.7, 202.26, 204.8, 204.66, 205.2, 204.62, 203.66, 201.78, 200.62, 200.72, 203.78, 203.3, 201.86, 204.2, 203.82, 205.58, 208.12, 209.08, 212.0, 213.0, 211.58, 212.36, 210.52, 207.14, 210.72, 209.64, 211.6, 210.56, 211.06, 211.68, 211.24, 211.38, 213.4, 211.12, 208.74, 207.08, 205.56, 206.86, 206.68, 206.5, 209.24, 207.14, 206.04, 205.96, 207.08, 206.7, 208.26, 207.2, 206.22, 207.4, 207.4, 208.42, 210.28, 211.3, 211.3, 209.8, 209.32, 209.32, 210.34, 211.36, 211.66, 212.8, 214.1, 216.82, 219.72, 219.82, 220.72, 221.66, 221.1, 222.04, 221.9, 221.78, 218.88, 218.04, 216.96, 214.84, 212.02, 211.54, 212.56, 213.58, 214.6, 215.62, 214.98, 212.92, 210.38, 209.02, 206.48, 203.68, 201.62, 199.94, 198.64, 197.28, 194.74, 192.08, 190.58, 189.22, 189.22, 185.0, 185.0, 183.5, 182.14, 182.14, 180.64, 179.28, 176.74, 174.68, 172.62, 172.62, 171.26, 168.72, 168.34, 166.98, 163.8, 162.5, 163.3, 164.2, 163.22, 163.22, 162.3, 162.02, 161.82, 161.96, 160.66, 159.36, 159.5, 159.5, 159.5, 159.5, 159.5, 158.46, 157.42, 156.12, 155.08, 155.22, 153.18, 149.94, 148.58, 148.58, 148.52, 146.04, 145.86, 147.04, 148.22, 149.4, 149.4, 149.88, 149.76, 150.94, 152.12, 153.3, 154.48, 155.66, 156.84, 157.7, 159.36, 160.54, 161.72, 162.04, 160.02, 159.04, 159.18, 160.62, 162.06, 162.2, 162.42, 161.72, 161.02, 159.72, 159.72, 158.42, 159.3, 159.3, 158.0, 158.0, 156.7, 155.4, 154.18, 154.18, 152.88, 152.18, 150.88, 148.28, 148.28, 147.58, 146.28, 144.98, 144.98, 144.98, 143.68, 143.68, 142.46, 141.16, 139.94, 138.64, 138.64, 137.94, 136.98, 136.1, 134.88, 134.88, 134.88, 133.66, 132.44, 131.14, 133.04, 133.04, 133.04, 133.04, 133.04, 133.1, 133.1, 133.16, 133.56, 133.04, 132.52, 132.26, 131.66, 131.14, 130.54, 129.94, 129.34, 129.34, 128.74, 128.14, 128.14, 127.54, 127.54, 126.34, 124.5, 122.32, 122.32, 122.4, 122.74, 122.74, 122.82, 122.82, 122.9, 123.24, 123.58, 123.92, 124.26, 124.34, 124.42, 124.5, 124.58, 124.66, 124.74, 124.82, 125.24, 125.32, 125.4, 125.82, 125.9, 125.98, 126.06, 126.14, 126.22, 126.3, 126.38, 126.46, 126.54, 126.96, 127.04, 127.04, 127.12, 128.72, 128.8, 129.14, 129.14, 129.14, 129.14, 129.48, 129.48, 129.82, 129.82, 129.82, 130.16, 130.5, 131.94, 131.94, 132.2, 132.54, 132.54, 134.06, 134.06, 135.5, 135.84, 136.18, 136.52, 136.86, 137.12, 137.46, 139.6, 141.12, 141.72, 142.06, 142.4, 142.74, 145.22, 145.56, 145.56, 148.34, 150.12, 150.46, 150.8, 151.14, 152.66, 155.0, 153.98, 154.06, 155.32, 155.4, 155.48, 155.48, 155.56, 155.64, 155.68, 155.76, 155.3, 156.16, 157.26, 158.04, 158.04, 159.22, 160.32, 162.32, 163.42, 164.2, 165.3, 165.58, 166.76, 167.54, 168.64, 169.42, 170.6, 173.18, 173.88, 173.34, 174.52, 174.76, 174.64, 175.42, 176.24, 177.34, 177.22, 178.0, 178.16, 180.16, 181.34, 182.44, 181.54, 180.72, 179.9, 179.54, 180.42, 180.78, 181.14, 181.1, 181.06, 181.68, 181.76, 181.84, 181.66, 180.02, 180.1, 180.26, 180.34, 180.02, 179.7, 179.38, 178.16, 177.84, 176.94, 176.54, 174.82, 169.42, 169.02, 169.02, 168.62, 168.62, 168.68, 168.28, 167.88, 167.48, 167.08, 165.24, 164.84, 163.9, 162.6, 161.16, 161.16, 160.76, 159.76, 160.62, 161.4, 162.18, 163.5, 163.5, 164.82, 165.4, 165.4, 164.36, 164.36, 163.46, 163.46, 163.46, 163.46, 162.56, 162.56, 162.56, 161.18, 161.56, 161.56, 160.52, 160.52, 160.52, 160.52, 160.52, 159.98, 159.98, 159.98, 159.98, 159.98, 159.08, 159.08, 159.08, 159.08, 159.06, 158.02, 157.48, 156.44, 155.54, 154.64, 154.1, 154.1, 153.06, 153.02, 146.38, 150.3, 153.88, 156.88, 163.0, 165.4, 166.12, 170.98, 172.08, 176.22, 177.38, 178.5, 181.18, 183.96, 185.02, 187.76, 187.28, 186.88, 186.54, 187.32, 188.92, 186.96, 189.1, 189.52, 190.08, 190.22, 191.56, 189.88, 190.96, 191.28, 191.8, 192.62, 192.6, 190.8, 191.84, 191.84, 190.84, 192.46, 193.36, 192.72, 193.76, 191.5, 191.84, 194.2, 193.62, 192.9, 192.46, 191.16, 190.3, 190.0, 190.76, 192.38, 192.62, 192.74, 194.5, 194.5, 196.16, 196.56, 192.8, 191.8, 191.14, 189.94, 188.2, 189.12, 189.12, 190.18, 189.82, 189.82, 186.96, 185.04, 184.94, 186.74, 186.94, 187.48, 184.64, 183.36, 187.48, 184.92, 183.74, 185.38, 184.82, 188.92, 188.12, 187.44, 188.08, 186.92, 187.82, 185.52, 185.06, 182.8, 183.84, 186.48, 188.02, 189.68, 189.68, 190.5, 189.06, 190.38, 192.84, 193.72, 195.12, 195.74, 193.52, 195.48, 196.16, 191.96, 192.92, 194.68, 195.52, 195.3, 195.26, 195.26, 196.1, 195.46, 198.16, 202.26, 205.6, 207.66, 207.46, 209.54, 210.7, 210.96, 209.76, 212.08, 213.22, 216.62, 222.26, 218.18, 216.22, 213.96, 210.24, 208.54, 204.82, 204.82, 206.86, 207.1, 209.34, 210.0, 209.7, 209.4, 206.76, 209.1, 210.36, 211.62, 212.88, 213.98, 213.98, 212.74, 213.66, 212.58, 209.18, 205.76, 205.76, 204.68, 200.38, 200.7, 199.88, 200.2, 198.18, 200.52, 203.74, 205.12, 208.34, 205.04, 204.08, 203.12, 203.12, 203.12, 204.0, 202.54, 203.42, 204.3, 202.84, 203.72, 203.46, 204.34, 205.22, 206.1, 206.16, 203.88, 204.7, 202.26, 201.14, 199.14, 195.46, 197.68, 197.96, 196.46, 196.46, 196.46, 196.46, 194.12, 196.08, 193.62, 193.62, 191.28, 188.94, 187.1, 185.26, 182.88, 182.88, 180.54, 179.04, 179.04, 177.54, 175.2, 173.7, 171.86, 170.36, 168.86, 167.36, 165.52, 164.52, 163.02, 160.68, 158.34, 156.0, 153.66, 149.36, 147.38, 148.22, 149.06, 149.56, 150.4, 151.24, 152.08, 152.92, 153.42, 153.42, 153.42, 154.26, 155.1, 155.94, 156.44, 157.78, 157.78, 158.84, 159.34, 159.84, 161.68, 162.52, 162.52, 163.86, 164.36, 164.86, 165.7, 166.54, 167.88, 168.72, 169.86, 170.36, 170.48, 171.32, 171.66, 172.0, 172.84, 172.84, 173.18, 173.28, 173.62, 173.48, 173.82, 174.16, 175.0, 174.76, 174.82, 174.52, 175.48, 175.4, 175.18, 174.68, 174.18, 174.18, 173.68, 173.18, 172.68, 171.1, 171.68, 172.26, 172.84, 173.72, 174.6, 174.6, 174.6, 174.6, 174.6, 174.6, 174.6, 174.6, 174.6, 174.6, 172.96, 172.96, 172.14, 172.14, 172.14, 172.14, 172.14, 171.32, 171.32, 171.32, 170.5, 170.5, 170.5, 170.5, 169.68, 168.86, 168.04, 167.22, 167.22, 166.4, 165.58, 164.76, 163.94, 163.12, 163.12, 163.12, 162.3, 162.3, 161.48, 160.66, 160.66, 159.84, 159.02, 158.2, 157.38, 156.56, 156.56, 155.74, 154.1, 153.28, 153.28, 153.28, 152.46, 150.82, 150.0, 149.18, 148.36, 147.54, 146.72, 146.72, 145.9, 145.08, 144.26, 143.44, 143.44, 142.62, 141.8, 140.98, 140.16, 139.34, 138.52, 137.7, 136.88, 136.12, 136.06, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 136.0, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 137.7, 138.22, 138.22, 138.22, 139.92, 139.92, 141.62, 143.8, 145.5, 146.02, 146.02, 146.5, 148.2, 148.72, 148.72, 149.24, 149.76, 149.76, 151.46, 151.46, 151.46, 153.16, 153.16, 153.16, 153.68, 153.68, 155.38, 155.9, 156.42, 156.94, 157.46, 157.46, 157.98, 160.16, 160.16, 160.68, 160.68, 160.68, 162.38, 164.08, 165.78, 166.3, 168.0, 168.52, 169.04, 172.96, 174.0]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[1063.7618753056938, 1045.0922108067375, 1035.0666908788162, 1005.1441261334337, 1066.16204516495, 1010.062273771856, 1027.3309567141741, 1022.3048327137546, 6.966006144559087, 17.624523931280176, 19.619798508459105, 14.350707304474138, 18.02654291266864, 18.17006678143058, 6.807918626169012, 6.866242342785683, 19.537729991030353, 9.316206167003996, 20.199788262395668, 7.457748960187364, 5.598603692056683, 4.612172593060699, 17.89088406948268, 17.141735849301238, 14.29190183370987, 7.199431252672307, 20.229014646957683, 15.346584089491527, 16.804530235033134, 6.707387595723598, 6.707387595723598, 11.6975341292823, 15.949144302765783, 7.477724111265847, 15.314143422675944, 10.455290320073248, 16.18219431408718, 16.93375664331393, 16.186016879565894, 19.722693605848733, 13.240790944159835, 4.784492325121758, 4.784492325121758, 9.446624352607902, 10.671618163455827, 18.560262255556246, 6.794508935172953, 8.858857159505623, 12.938715974336406, 9.171632134033048, 9.171632134033048, 7.488259620870648, 13.170577205500065, 16.815651477273278, 5.017804269765052, 11.070929208680813, 14.41354179156495, 14.41354179156495, 17.22443150995316, 13.237213638322194, 5.961982119213691, 10.533611375351555, 6.591589473202374, 7.663017680003388, 9.545804057562655, 6.812523493599646, 7.209732541370023, 6.6796710693293235, 9.591974420650757, 15.888420574398989, 15.888420574398989, 17.009855944237515, 11.343219422672854, 5.177320775269254, 11.868393107297418, 11.868393107297418, 7.011020705610716, 7.998550534070116, 11.258732681852768, 11.258732681852768, 7.839078445775729, 7.839078445775729, 10.321919625197298, 10.321919625197298, 9.292033743215265, 12.264197816350725, 14.928794892096139, 6.728594079534321, 8.999303281322229, 7.747858378954923, 7.747858378954923, 8.825885100055427, 11.06267656540832, 11.161614510726706, 14.943722330907004, 6.556050919772046, 15.678270962074388, 15.476418230610914, 16.60261245610913, 12.475555300643489, 6.508868458520091, 10.353209155931312, 10.353209155931312, 5.6911597892174015, 15.019334555676515, 12.563931984431836, 12.563931984431836, 9.621502357596935, 9.621502357596935, 8.628631189946763, 12.420224336801649, 12.420224336801649, 10.644530231957397, 9.541497273412006, 9.541497273412006, 9.541497273412006, 9.541497273412006, 9.541497273412006, 9.541497273412006, 9.541497273412006, 9.541497273412006, 9.541497273412006, 8.589599768598028, 9.014098455212366, 6.180760615146649, 6.432919163208497, 6.432919163208497, 5.023082547554969, 11.515356121657273, 14.229755593891245, 9.480536844081513, 9.480536844081513, 9.480536844081513, 9.480536844081513, 11.841235810495307, 13.436293361016144, 13.436293361016144, 13.942637909299135, 10.544162862104415, 10.544162862104415, 9.136568648963936, 9.136568648963936, 9.136568648963936, 9.136568648963936, 9.136568648963936, 7.135623803368649, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 11.39914405942813, 8.734870836523616, 10.523740498913709, 10.523740498913709, 10.523740498913709, 10.523740498913709, 5.705604621317626, 5.705604621317626, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 7.9927000452516195, 10.186220163501703, 12.44739625188519, 8.297670248029284, 8.297670248029284, 8.297670248029284, 8.297670248029284, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 7.42297820220935, 7.42297820220935, 7.42297820220935, 4.8889920068507315, 4.8889920068507315, 4.8889920068507315, 4.8889920068507315, 4.8889920068507315, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 7.98567696807179, 5.038940978186662, 5.038940978186662, 5.038940978186662, 5.038940978186662, 5.038940978186662, 5.038940978186662, 5.038940978186662, 5.038940978186662, 5.038940978186662, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 9.000110181938895, 9.611268004519477, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 4.886495845571236, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 7.7504707540057, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.498920025603061, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 9.651792562246527, 9.651792562246527, 9.651792562246527, 8.480674953704062, 6.016164240665717, 7.169544965870192, 7.169544965870192, 7.169544965870192, 7.169544965870192, 5.812845240615574, 5.812845240615574, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.823479703884995, 7.823479703884995, 4.392637520881781, 4.392637520881781, 4.392637520881781, 4.392637520881781, 4.392637520881781, 5.673452996742417, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 6.719746029360607, 1041.5748410869717, 1022.0148741301344, 1011.2688284245851, 1011.6237995751758, 1064.0566987582697, 1023.4327859765374, 1022.7738381863899, 1013.2956749240104, 1094.366451577206, 6.055298298742531, 14.600528071161717, 6.8172197916618416, 7.584710684143398, 10.964871262000724, 10.283938535153338, 11.87585419754587, 16.25163359696649, 9.485288960726983, 8.613928444699853, 10.444010300241722, 13.801848416716911, 7.981487464312948, 13.220469352811838, 12.78334503821919, 13.594958145418056, 12.911128137963015, 16.36723465647735, 8.820176514094799, 12.944032991015183, 14.032425891425609, 9.290776339424179, 12.812300406722906, 15.581178568023237, 8.710610349375859, 16.337499711188777, 10.996616403224174, 11.234207288037373, 12.857021651101695, 12.861085478685263, 8.604735240179776, 16.147351998502042, 11.270059413875895, 6.4315277990095785, 9.293869552544267, 11.872486631982607, 12.566254245359218, 11.232537946955484, 10.94942403096557, 10.94942403096557, 9.583779125355292, 9.726822029944765, 9.726822029944765, 9.15438437538685, 10.443570138633595, 12.628951421508516, 12.628951421508516, 10.895544712220468, 15.316976190916666, 10.968099855565772, 10.968099855565772, 13.980930651578849, 14.714966308143268, 11.084000856929961, 11.084000856929961, 7.135154998397439, 12.557791806761362, 14.711627585862608, 14.711627585862608, 4.068057527313768, 11.51734225368037, 9.829919902263567, 9.829919902263567, 8.048680154446906, 11.961179558880639, 7.601329397277342, 4.866971867411551, 13.611561826361669, 14.332149307052804, 9.530888186876004, 8.382406719536366, 5.958622642577761, 8.666849049636197, 15.355687417094778, 5.438977937611103, 9.116660950913671, 8.374871066776235, 13.332437867897415, 8.715431467377943, 12.670306779313842, 12.670306779313842, 9.394427767170983, 6.698748884308592, 6.698748884308592, 10.262801815040435, 10.262801815040435, 10.451705880651415, 10.451705880651415, 10.451705880651415, 8.157724078062586, 8.157724078062586, 7.719370117796927, 10.430154987147175, 8.70310403255515, 11.101869501865325, 15.008286986717147, 4.966157617541397, 8.595383300420043, 12.660754377800483, 13.308214099736537, 10.043298934674338, 10.043298934674338, 10.043298934674338, 5.850653973373071, 4.801330669545687, 4.801330669545687, 6.607210897896101, 10.351177733045136, 10.351177733045136, 4.919959774714666, 7.08623800905421, 8.555393558247456, 6.050582024257408, 7.07102585023359, 7.07102585023359, 7.07102585023359, 7.07102585023359, 15.654603128547484, 14.283426374816855, 14.971905113059021, 14.971905113059021, 14.971905113059021, 14.971905113059021, 8.42700015980509, 8.42700015980509, 5.699374506280093, 6.4850723330210895, 12.315465391282412, 12.315465391282412, 12.315465391282412, 12.315465391282412, 8.705825955137612, 8.705825955137612, 8.705825955137612, 8.705825955137612, 9.04221755213242, 9.04221755213242, 9.04221755213242, 7.417997439252002, 14.01052595959565, 14.01052595959565, 14.01052595959565, 14.01052595959565, 14.01052595959565, 14.01052595959565, 10.767431417527298, 10.767431417527298, 10.767431417527298, 10.767431417527298, 4.117291205213596, 4.117291205213596, 4.117291205213596, 4.117291205213596, 13.557534660866105, 13.557534660866105, 13.557534660866105, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 9.346514259495706, 11.16677282920976, 11.16677282920976, 4.639853799836582, 8.590676652403259, 8.590676652403259, 12.102346575666932, 13.895543717162301, 6.122882481229062, 6.302142824846031, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 10.750804281554771, 14.823160583202277, 9.852721245614855, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 7.0062969063090295, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 6.323357017018382, 7.30473835867871, 7.531404685618283, 4.8818537488764955, 4.8818537488764955, 6.822175514567332, 7.292651150009884, 7.292651150009884, 7.292651150009884, 7.292651150009884, 7.292651150009884, 7.292651150009884, 7.292651150009884, 5.092513818185174, 5.092513818185174, 5.092513818185174, 4.572545918790436, 4.572545918790436, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 5.953372186144302, 4.638288882417336, 4.638288882417336, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 5.023082547554969, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 11.841235810495307, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 5.537231969843848, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 6.391164455805277, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.011493444060818, 5.498920025603061, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 5.652599858090633, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.616386524990283, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 7.771609305430803, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 6.562674429759156, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 4.800553330387971, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 6.922146888139318, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 5.87532963406044, 4.639853799836582, 4.639853799836582, 4.639853799836582, 4.639853799836582, 4.639853799836582, 4.639853799836582, 4.639853799836582, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 13.895543717162301, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 5.629332682484414, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.8818537488764955, 4.572545918790436, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.638288882417336, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 4.461133935565155, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 7.132447278709676, 5.152303083263493, 5.152303083263493, 5.152303083263493, 5.152303083263493, 5.152303083263493, 5.152303083263493, 4.996526371343058, 4.996526371343058, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 4.989761618899049, 5.680355130740864]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[13.544121976109993, 13.291495694789738, 13.048388725312998, 12.88482574055124, 12.622445749273556, 12.622582107904213, 12.359416431900954, 12.245882248193945, 12.178341936991242, 11.898729993694674, 11.778524590724619, 11.586650741576817, 11.456141040185848, 11.431150357039437, 11.237157353502267, 11.32187102706439, 11.157925981865086, 10.956798265447903, 10.956663421557165, 10.835061740974753, 10.813863960853695, 10.902342360695384, 11.131063179382975, 11.174045420861855, 11.208758809979622, 11.093937689138786, 11.022268856803775, 10.779376669067764, 10.691473095780113, 10.577453498482749, 10.56582263545569, 10.52721858187709, 10.502146317287444, 10.490868803444686, 10.526690170360542, 10.467210225062987, 10.509703044823583, 10.523381879608053, 10.370361639072632, 10.193421409379477, 9.910248393268795, 9.858151508785932, 9.887447566074009, 10.020297539345954, 9.989891318869399, 10.003223943434733, 9.763274654700748, 9.905962056080966, 9.959156988166669, 9.89412830182809, 9.86626189967764, 9.87436793331206, 9.899903520337181, 9.977974371089488, 9.876399097809275, 9.961183118774983, 9.931629157519048, 9.963899323277587, 9.81222108729145, 9.607100407404337, 9.538147349947147, 9.60472799831348, 9.61979270840948, 9.60595490220982, 9.681710260992435, 9.962337107877676, 10.073820994720354, 10.046633603877618, 10.06481266812495, 10.028269834435948, 9.968918703026857, 9.8654618474214, 9.776276190550636, 9.7738897558808, 9.895143598748009, 9.849361865627724, 9.753483420621608, 9.83995478251163, 9.804699089246684, 9.869557262127664, 9.961927757844817, 9.99328503823231, 10.128685842857237, 10.151941956849436, 10.078371895653037, 10.111931242830723, 9.988760831512241, 9.80053588282928, 9.967001256055449, 9.890155660422149, 9.96204552523252, 9.896143145398263, 9.909247382088106, 9.918544912892257, 9.887717881303855, 9.890891296231354, 9.967096715833398, 9.842644102302812, 9.713702593166106, 9.618936050109548, 9.546261223329786, 9.604894404170592, 9.589496895352909, 9.56579933483647, 9.676479726783134, 9.564601929339789, 9.49930384698753, 9.480411291177818, 9.516898647060206, 9.483784637830121, 9.555203181740604, 9.500992500298509, 9.445680340301658, 9.479968789885504, 9.479968789885504, 9.517682248532015, 9.595743014510925, 9.633286180469298, 9.625051661667746, 9.547259837843088, 9.515893078445847, 9.50778200686077, 9.545233540237753, 9.583613554104886, 9.592521507509737, 9.631422135487938, 9.683141134690954, 9.789313262580308, 9.914034747544308, 9.912659084858275, 9.946339937425934, 9.984506631387696, 9.954424952543983, 9.992553645163502, 9.955238814940273, 9.946981888289724, 9.803597005662626, 9.763881497443029, 9.713988884681129, 9.617680746661659, 9.467935732575427, 9.445139706503113, 9.489955929321864, 9.534765294317998, 9.579567803065485, 9.624363457137807, 9.590551465577102, 9.487856624222417, 9.369992802226067, 9.3013686020223, 9.183758394613712, 9.051824951236041, 8.950130864418348, 8.871044935563654, 8.809751699312086, 8.741899561375932, 8.62506305456053, 8.489482792369367, 8.422622933425775, 8.355340987258879, 8.355340987258879, 8.16083456789205, 8.16083456789205, 8.094125255883574, 8.027254010841668, 8.027254010841668, 7.96061519719896, 7.893919897859995, 7.778241961496915, 7.6789629902342735, 7.5799063940934674, 7.5799063940934674, 7.513774678506969, 7.398697791558936, 7.381769972421568, 7.315898139138203, 7.1724990264764825, 7.1126946661445185, 7.1475507695238605, 7.185818008746391, 7.137114690439899, 7.137114690439899, 7.09427067063529, 7.076746203867443, 7.062085984053676, 7.062671436348248, 7.000835562824574, 6.939090463477905, 6.939770515550242, 6.939770515550242, 6.939770515550242, 6.939770515550242, 6.939770515550242, 6.891613665539364, 6.84349740714461, 6.782012816651175, 6.733998170886323, 6.734835831660379, 6.644178240553225, 6.499105675454876, 6.429563883765523, 6.429563883765523, 6.4241346358151405, 6.315792004769768, 6.305476338614789, 6.354227027309316, 6.402943057941022, 6.451624467455676, 6.451624467455676, 6.4683590445650365, 6.453140800022602, 6.5016815918204784, 6.550187986267024, 6.598660019911659, 6.647097729252049, 6.695501150734185, 6.743870320752479, 6.780778449398553, 6.845524829185598, 6.8937766104253875, 6.941994304995724, 6.953346764781679, 6.853476785425359, 6.80107463778029, 6.798663226057399, 6.859853909998884, 6.921039019575372, 6.918482987119388, 6.918247054369589, 6.886650591342616, 6.85507045437891, 6.7916819404700375, 6.7916819404700375, 6.728443223089641, 6.762029314585131, 6.762029314585131, 6.698935541643949, 6.698935541643949, 6.635990434083972, 6.573193467081913, 6.512902356159764, 6.512902356159764, 6.450407129145971, 6.41922868253816, 6.356932483186907, 6.23277717202308, 6.23277717202308, 6.201771526245512, 6.139963356154759, 6.078299366545648, 6.078299366545648, 6.078299366545648, 6.016779053509236, 6.016779053509236, 5.957822842902781, 5.8965950647084515, 5.837942931711901, 5.777005549762607, 5.777005549762607, 5.746384091154172, 5.698095587219881, 5.653128040768208, 5.59512509095501, 5.59512509095501, 5.59512509095501, 5.537273685206608, 5.479573230390024, 5.419548995951157, 5.496542296052301, 5.496542296052301, 5.496542296052301, 5.496542296052301, 5.496542296052301, 5.492946846475387, 5.492946846475387, 5.489359331368947, 5.498166057017289, 5.471024458582568, 5.443939644849965, 5.426820097312666, 5.397384089099955, 5.370460475105155, 5.341131492163142, 5.3118546669874185, 5.282629860567925, 5.282629860567925, 5.25345693438815, 5.224335750422931, 5.224335750422931, 5.195266171136295, 5.195266171136295, 5.137281278887764, 5.058339792911854, 4.966816666158846, 4.966816666158846, 4.9693158744260275, 4.981677447655075, 4.981677447655075, 4.984173317039208, 4.984173317039208, 4.986668434400333, 4.999017690080404, 5.011359804459593, 5.023694783730591, 5.036022634078937, 5.038506691313232, 5.040990001173672, 5.043472563997496, 5.045954380121741, 5.048435449883245, 5.050915773618639, 5.053395351664353, 5.068811720695991, 5.071287461059735, 5.073762457568363, 5.089162999268593, 5.0916341656343365, 5.094104589974454, 5.096574272623116, 5.099043213914283, 5.101511414181721, 5.103978873758996, 5.106445592979472, 5.108911572176311, 5.111376811682481, 5.12674001100272, 5.129201438300695, 5.129201438300695, 5.1316621277252805, 5.190543544975113, 5.192991980286939, 5.20520381998102, 5.20520381998102, 5.20520381998102, 5.20520381998102, 5.218061957321337, 5.218061957321337, 5.230915926006717, 5.230915926006717, 5.230915926006717, 5.24376572806407, 5.256611365518995, 5.3103763369548025, 5.3103763369548025, 5.320109215597675, 5.332928406848918, 5.332928406848918, 5.389786932498106, 5.389786932498106, 5.443344176441457, 5.456120968168055, 5.468893631419127, 5.481662168195358, 5.494426580496137, 5.504109529226966, 5.516866505597262, 5.599644213536206, 5.656115223466231, 5.678469984302858, 5.691175793644679, 5.703877508077193, 5.71657512957968, 5.8016482950554735, 5.814297062493659, 5.814297062493659, 5.921357076949413, 5.98671294374562, 5.999309474395927, 6.0119019644705265, 6.024490415913242, 6.08027173674881, 6.172358419571814, 6.130902493012575, 6.133939831162853, 6.180068157588453, 6.183102253735049, 6.186136203613818, 6.186136203613818, 6.189170007235335, 6.192203664610176, 6.177877428879355, 6.1809034886856224, 6.157574426770557, 6.182491611219229, 6.213291112279419, 6.235031112714347, 6.235031112714347, 6.277669505242548, 6.317106054392524, 6.39578534876919, 6.435123127023316, 6.4564692609285395, 6.4956879975287825, 6.499288907045097, 6.541546782929591, 6.562657835703473, 6.601661328594906, 6.6226423474100224, 6.664650208545524, 6.755402217330708, 6.763614787692784, 6.737325175081154, 6.77902376353932, 6.771879709711742, 6.750606223732072, 6.771112038307227, 6.800449011284379, 6.8387261258031105, 6.817391526528899, 6.837704332710399, 6.840231774101908, 6.9168855447832325, 6.9579662805285745, 6.995933289103341, 6.957342059796817, 6.921856406982973, 6.886412333038119, 6.87000130140198, 6.9011985211044165, 6.913120185693374, 6.925035477868615, 6.916094626277677, 6.907172896647964, 6.924728825242887, 6.914908990729467, 6.917948800236226, 6.904448458854868, 6.840979715816896, 6.844016133040263, 6.850088957689888, 6.853125365116155, 6.835495884300017, 6.8178945692943405, 6.800321352654176, 6.741865410564537, 6.72439844398175, 6.685912678631695, 6.665498758034692, 6.599472408281053, 6.371819293446833, 6.351749125450114, 6.351749125450114, 6.331710671489767, 6.331710671489767, 6.332951411511946, 6.312946812016218, 6.292973768041671, 6.273032204982999, 6.2531220484698915, 6.171315439055599, 6.151542420820861, 6.105801502251312, 6.046618324934938, 5.985279406505205, 5.985279406505205, 5.965762131741093, 5.919309094898944, 5.943802661549291, 5.9633025837272085, 5.98274145557777, 6.0277257196924685, 6.0277257196924685, 6.072654678795818, 6.093254066681891, 6.093254066681891, 6.051829384515591, 6.051829384515591, 6.0127795095808585, 6.0127795095808585, 6.0127795095808585, 6.0127795095808585, 5.9738062663734155, 5.9738062663734155, 5.9738062663734155, 5.9230025123314585, 5.928419815394543, 5.928419815394543, 5.887242084761338, 5.887242084761338, 5.887242084761338, 5.887242084761338, 5.887242084761338, 5.86190084798636, 5.86190084798636, 5.86190084798636, 5.86190084798636, 5.86190084798636, 5.823226379306588, 5.823226379306588, 5.823226379306588, 5.823226379306588, 5.806851081554068, 5.765945615778991, 5.740847575959061, 5.700034855543917, 5.661734444048058, 5.623508409862999, 5.5986285271875955, 5.5986285271875955, 5.558025873128356, 5.5545095887143905, 10.742047207206454, 10.771940584556416, 10.548656467643632, 10.520445479273912, 10.446717061248831, 10.380004568949026, 10.424821318600525, 10.430253028861122, 10.246406493609355, 10.098677732945797, 10.130261400975126, 10.137311144442782, 10.23990565815914, 10.384939008949233, 10.422034739248193, 10.492811673386829, 10.447726917186737, 10.327685001998221, 10.300127650145445, 10.317791181658967, 10.35054743153797, 10.227484735752789, 10.279819106154234, 10.274384181074007, 10.276642582441205, 10.252995476730613, 10.296871194971544, 10.20231012751514, 10.246280290437191, 10.233909981857892, 10.24068840965243, 10.270762040660104, 10.221288476829562, 10.087735805979744, 10.127360425704317, 10.055013583261736, 9.967808546573702, 10.023147171490477, 10.045262015309483, 10.002704895546307, 10.045891996188162, 9.897206202016378, 9.884318641637341, 9.971973335631336, 9.88089527967758, 9.84232219840622, 9.814180239427818, 9.737323901298598, 9.65773370817047, 9.612192622762903, 9.640618850861665, 9.700321930347917, 9.696536210333798, 9.686058043097342, 9.767095231649545, 9.767095231649545, 9.824128990343066, 9.818411095009434, 9.593343240189078, 9.515809583784518, 9.46703993400698, 9.375984551230431, 9.263086109635053, 9.296644097805581, 9.28293990195976, 9.332740798521273, 9.281594455398437, 9.281594455398437, 9.09651513367436, 8.985422305639508, 8.967479825226718, 9.052093924047155, 9.037578697610988, 9.057377813821994, 8.85880554879021, 8.789483870267846, 8.985058925169481, 8.822963124697623, 8.752187109001028, 8.811255549976455, 8.746921335523572, 8.924298211744716, 8.871247817937569, 8.83572572979879, 8.835925493280017, 8.767198246860781, 8.806576432057412, 8.687300016914556, 8.65449210653116, 8.525027936824015, 8.559208312020184, 8.671447971504234, 8.741995981808822, 8.811742553399197, 8.811742553399197, 8.84097581156743, 8.763537202381851, 8.819771879425273, 8.924511228248882, 8.960587129030221, 9.012262262816712, 9.030541377194293, 8.92628452848316, 9.002964970885493, 9.033162831846452, 8.837197687571484, 8.876371772252744, 8.950309169513078, 8.980761801584345, 8.96414520631337, 8.951258643118102, 8.951258643118102, 8.968956497654316, 8.930873410059144, 9.046947871934703, 9.227350867487647, 9.372857652333668, 9.46349192936728, 9.444100906391471, 9.529106422417414, 9.572399535194823, 9.571810368267442, 9.470374386376283, 9.5723073898659, 9.615953392237733, 9.768536601313953, 10.013948400761667, 9.81421558100174, 9.71878594160555, 9.610168630739322, 9.421573148375247, 9.341390086388314, 9.153914120452523, 9.153914120452523, 9.21576022228934, 9.206762594185237, 9.291043695643124, 9.316632421632802, 9.288816707627575, 9.261087602078145, 9.125751315908412, 9.227963626642115, 9.26941154528371, 9.310733233755961, 9.351929267835507, 9.386616824767886, 9.386616824767886, 9.314286321681786, 9.351163889386356, 9.290888834515277, 9.123767256442537, 8.957868867298652, 8.957868867298652, 8.89845850085344, 8.709538132426019, 8.71191921566427, 8.670445528977803, 8.672873417100755, 8.570042275806902, 8.6700900065645, 8.799133935005955, 8.834306677488591, 8.962657543451924, 8.80664853537844, 8.755546488804438, 8.704559386962366, 8.704559386962366, 8.704559386962366, 8.733394960705748, 8.658086884280937, 8.68689778198811, 8.715650379861405, 8.640631399321375, 8.6693594049385, 8.655018924579254, 8.683692616686711, 8.712308568861149, 8.740866955332649, 8.73495177913577, 8.626044827225567, 8.656807069115828, 8.498485728570746, 8.400114249463627, 8.269325398165071, 8.109612456096059, 8.198918764170658, 8.196007944137431, 8.091752909652739, 8.091752909652739, 8.091752909652739, 8.091752909652739, 7.991809146110905, 8.071360846345478, 7.9505648093946375, 7.9505648093946375, 7.850987132873763, 7.7514979310521746, 7.664294293050664, 7.577356434996997, 7.445620255050833, 7.445620255050833, 7.3471124487269455, 7.248953376750006, 7.248953376750006, 7.1517893083170945, 7.054450668008193, 6.958798918884155, 6.874822868163765, 6.780691527285743, 6.687498281429647, 6.595229176811271, 6.513156549958445, 6.4521803841168195, 6.361960668253292, 6.267991890767678, 6.174102466062995, 6.0802922936664086, 5.986561273274634, 5.817357792219481, 5.739203578625952, 5.746183613351592, 5.753101691108471, 5.766517325757194, 5.773308093711872, 5.780039175367765, 5.786711354185663, 5.793325399974166, 5.806453839895641, 5.806453839895641, 5.806453839895641, 5.8129470913888275, 5.819384313077131, 5.825766227060874, 5.838680687080021, 5.872396672971281, 5.872396672971281, 5.896155226556041, 5.908918182649075, 5.921656144960512, 5.958503678503807, 5.964185625041185, 5.964185625041185, 5.996997912355433, 6.009484186862753, 6.021946352467275, 6.027312875331589, 6.032634691446293, 6.064839714452284, 6.0699700318173155, 6.104343443384746, 6.116502622446648, 6.097498437597837, 6.117057720460458, 6.109877538084521, 6.102742479228336, 6.122136949222205, 6.122136949222205, 6.114997939539587, 6.08335575750898, 6.076399988493678, 6.030929884695886, 6.02420271279377, 6.017516710080494, 6.036544876756828, 6.012672478359333, 6.00551665574133, 5.977805998033559, 5.997103784761471, 5.968932133517225, 5.952638252429735, 5.9274629221435875, 5.9023569298779925, 5.9023569298779925, 5.877319989570203, 5.852351816728896, 5.827452128423395, 5.760930600279875, 5.777857081436306, 5.794768330401249, 5.8116643677267, 5.838723696174505, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.865759592147243, 5.804777794760419, 5.804777794760419, 5.774333196564569, 5.774333196564569, 5.774333196564569, 5.774333196564569, 5.774333196564569, 5.743919402903236, 5.743919402903236, 5.743919402903236, 5.713536367046973, 5.713536367046973, 5.713536367046973, 5.713536367046973, 5.683184042360797, 5.652862382303961, 5.622571340429702, 5.59231087038502, 5.59231087038502, 5.5620809259104265, 5.5318814608397195, 5.501712429099741, 5.4715737847101495, 5.441465481783182, 5.441465481783182, 5.441465481783182, 5.411387474523421, 5.411387474523421, 5.381339717227563, 5.351322164284192, 5.351322164284192, 5.321334770173537, 5.291377489467255, 5.261450276828192, 5.231553087010162, 5.201685874857711, 5.201685874857711, 5.171848595305896, 5.112263654195579, 5.082515902957699, 5.082515902957699, 5.082515902957699, 5.052797904961241, 4.993450990318607, 4.963821984708111, 4.934222554409955, 4.9046526551636545, 4.875112242796995, 4.84560127322582, 4.84560127322582, 4.816119702453803, 4.786667486572231, 4.757244581759788, 4.72785094428234, 4.72785094428234, 4.698486530492714, 4.669151296830481, 4.639845199821746, 4.610568196078931, 4.581320242300556, 4.552101295271036, 4.522911311860454, 4.493750249024365, 4.4681045597523905, 4.464618063803571, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.461133935565154, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.515418024665089, 4.5296275783677205, 4.5296275783677205, 4.5296275783677205, 4.583837446100494, 4.583837446100494, 4.638011832659825, 4.703133118238792, 4.7571786914607985, 4.768003992471711, 4.768003992471711, 4.778881505807209, 4.832760792484711, 4.846693646772674, 4.846693646772674, 4.857368467722911, 4.871259379502133, 4.871259379502133, 4.924954685495431, 4.924954685495431, 4.924954685495431, 4.978615108645082, 4.978615108645082, 4.978615108645082, 4.99241300035118, 4.99241300035118, 5.046000774166191, 5.056382142191964, 5.066736864591039, 5.0770650438180445, 5.090736017222579, 5.090736017222579, 5.101013901670532, 5.164612223564586, 5.164612223564586, 5.1781853833015035, 5.1781853833015035, 5.1781853833015035, 5.231286127040161, 5.2843526925843, 5.3373851129214005, 5.3508304530356, 5.403791820619375, 5.413618904073925, 5.4269877380100855, 5.5422328199813125, 5.566243953874969]</t>
+        </is>
       </c>
     </row>
   </sheetData>
